--- a/configs/test_diagnostics.xlsx
+++ b/configs/test_diagnostics.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3019,9 +3019,309 @@
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr"/>
       <c r="G102" s="2" t="n">
-        <v>45905.77089623072</v>
+        <v>45905.77089622685</v>
       </c>
       <c r="H102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_AIDS_with_SVC_Simple_Prototype_GED_poly</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>AIDS</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>SVC_Simple_Prototype_GED_poly</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>SVC_Simple_Prototype_GED_poly_trained_on_AIDS.joblib</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" s="2" t="n">
+        <v>45910.64188774306</v>
+      </c>
+      <c r="G103" s="2" t="n">
+        <v>45910.64188697917</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_AIDS_with_SVC_Simple_Prototype_GED_poly</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>AIDS</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>SVC_Simple_Prototype_GED_poly</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>SVC_Simple_Prototype_GED_poly_trained_on_AIDS.joblib</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" s="2" t="n">
+        <v>45910.64188774306</v>
+      </c>
+      <c r="G104" s="2" t="n">
+        <v>45910.64188697917</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_PTC_FR_with_SVC_Simple_Prototype_GED_poly</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>SVC_Simple_Prototype_GED_poly</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>SVC_Simple_Prototype_GED_poly_trained_on_PTC_FR.joblib</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" s="2" t="n">
+        <v>45910.6429222338</v>
+      </c>
+      <c r="G105" s="2" t="n">
+        <v>45910.64292206019</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_PTC_FR_with_SVC_Simple_Prototype_GED_poly</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>SVC_Simple_Prototype_GED_poly</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>SVC_Simple_Prototype_GED_poly_trained_on_PTC_FR.joblib</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" s="2" t="n">
+        <v>45910.6429222338</v>
+      </c>
+      <c r="G106" s="2" t="n">
+        <v>45910.64292206019</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Simple_Prototype_GED_poly</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>SVC_Simple_Prototype_GED_poly</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>SVC_Simple_Prototype_GED_poly_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" s="2" t="n">
+        <v>45910.64468162037</v>
+      </c>
+      <c r="G107" s="2" t="n">
+        <v>45910.64468146991</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Simple_Prototype_GED_poly</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>SVC_Simple_Prototype_GED_poly</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>SVC_Simple_Prototype_GED_poly_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" s="2" t="n">
+        <v>45910.64468162037</v>
+      </c>
+      <c r="G108" s="2" t="n">
+        <v>45910.64468146991</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Simple_Prototype_GED_poly</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>SVC_Simple_Prototype_GED_poly</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>SVC_Simple_Prototype_GED_poly_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" s="2" t="n">
+        <v>45910.64681074074</v>
+      </c>
+      <c r="G109" s="2" t="n">
+        <v>45910.64681050926</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Simple_Prototype_GED_poly</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>SVC_Simple_Prototype_GED_poly</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>SVC_Simple_Prototype_GED_poly_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" s="2" t="n">
+        <v>45910.64681074074</v>
+      </c>
+      <c r="G110" s="2" t="n">
+        <v>45910.64681050926</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_Letter-high_with_SVC_Simple_Prototype_GED_poly</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Letter-high</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>SVC_Simple_Prototype_GED_poly</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>SVC_Simple_Prototype_GED_poly_trained_on_Letter-high.joblib</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" s="2" t="n">
+        <v>45910.65059689815</v>
+      </c>
+      <c r="G111" s="2" t="n">
+        <v>45910.65059133102</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_Letter-high_with_SVC_Simple_Prototype_GED_poly</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Letter-high</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>SVC_Simple_Prototype_GED_poly</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>SVC_Simple_Prototype_GED_poly_trained_on_Letter-high.joblib</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" s="2" t="n">
+        <v>45910.65059689566</v>
+      </c>
+      <c r="G112" s="2" t="n">
+        <v>45910.65059132903</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/configs/test_diagnostics.xlsx
+++ b/configs/test_diagnostics.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H112"/>
+  <dimension ref="A1:H128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3316,12 +3316,492 @@
       </c>
       <c r="E112" t="inlineStr"/>
       <c r="F112" s="2" t="n">
-        <v>45910.65059689566</v>
+        <v>45910.65059689815</v>
       </c>
       <c r="G112" s="2" t="n">
-        <v>45910.65059132903</v>
+        <v>45910.65059133102</v>
       </c>
       <c r="H112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_Letter-high_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Letter-high</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED_trained_on_Letter-high.joblib</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" s="2" t="n">
+        <v>45912.60330827547</v>
+      </c>
+      <c r="G113" s="2" t="n">
+        <v>45912.60326099537</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_Letter-high_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Letter-high</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED_trained_on_Letter-high.joblib</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" s="2" t="n">
+        <v>45912.6047197338</v>
+      </c>
+      <c r="G114" s="2" t="n">
+        <v>45912.60468278935</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_Letter-high_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Letter-high</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED_trained_on_Letter-high.joblib</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" s="2" t="n">
+        <v>45912.60630778935</v>
+      </c>
+      <c r="G115" s="2" t="n">
+        <v>45912.60627363426</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_Letter-high_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Letter-high</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED_trained_on_Letter-high.joblib</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" s="2" t="n">
+        <v>45912.60910956019</v>
+      </c>
+      <c r="G116" s="2" t="n">
+        <v>45912.60907547454</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" s="2" t="n">
+        <v>45912.61058741898</v>
+      </c>
+      <c r="G117" s="2" t="n">
+        <v>45912.6105871875</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" s="2" t="n">
+        <v>45912.61173458333</v>
+      </c>
+      <c r="G118" s="2" t="n">
+        <v>45912.61173435185</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" s="2" t="n">
+        <v>45912.61266902777</v>
+      </c>
+      <c r="G119" s="2" t="n">
+        <v>45912.61266877314</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" s="2" t="n">
+        <v>45912.612916875</v>
+      </c>
+      <c r="G120" s="2" t="n">
+        <v>45912.61291667824</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" s="2" t="n">
+        <v>45912.612916875</v>
+      </c>
+      <c r="G121" s="2" t="n">
+        <v>45912.61291667824</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" s="2" t="n">
+        <v>45912.61332822917</v>
+      </c>
+      <c r="G122" s="2" t="n">
+        <v>45912.61332799769</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" s="2" t="n">
+        <v>45912.61519488426</v>
+      </c>
+      <c r="G123" s="2" t="n">
+        <v>45912.61519466435</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" s="2" t="n">
+        <v>45912.61885483797</v>
+      </c>
+      <c r="G124" s="2" t="n">
+        <v>45912.61885425926</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" s="2" t="n">
+        <v>45912.65649662037</v>
+      </c>
+      <c r="G125" s="2" t="n">
+        <v>45912.65649607639</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" s="2" t="n">
+        <v>45912.65649662037</v>
+      </c>
+      <c r="G126" s="2" t="n">
+        <v>45912.65649607639</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" s="2" t="n">
+        <v>45912.65889356482</v>
+      </c>
+      <c r="G127" s="2" t="n">
+        <v>45912.65889335648</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" s="2" t="n">
+        <v>45912.65889356853</v>
+      </c>
+      <c r="G128" s="2" t="n">
+        <v>45912.65889335222</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/configs/test_diagnostics.xlsx
+++ b/configs/test_diagnostics.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H128"/>
+  <dimension ref="A1:H134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3796,12 +3796,192 @@
       </c>
       <c r="E128" t="inlineStr"/>
       <c r="F128" s="2" t="n">
-        <v>45912.65889356853</v>
+        <v>45912.65889356482</v>
       </c>
       <c r="G128" s="2" t="n">
-        <v>45912.65889335222</v>
+        <v>45912.65889335648</v>
       </c>
       <c r="H128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" s="2" t="n">
+        <v>45913.53986631944</v>
+      </c>
+      <c r="G129" s="2" t="n">
+        <v>45913.53986611111</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" s="2" t="n">
+        <v>45913.53986631944</v>
+      </c>
+      <c r="G130" s="2" t="n">
+        <v>45913.53986611111</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" s="2" t="n">
+        <v>45913.61776412037</v>
+      </c>
+      <c r="G131" s="2" t="n">
+        <v>45913.61776390046</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" s="2" t="n">
+        <v>45913.61776412037</v>
+      </c>
+      <c r="G132" s="2" t="n">
+        <v>45913.61776390046</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" s="2" t="n">
+        <v>45913.61797832176</v>
+      </c>
+      <c r="G133" s="2" t="n">
+        <v>45913.61797810185</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" s="2" t="n">
+        <v>45913.61797831874</v>
+      </c>
+      <c r="G134" s="2" t="n">
+        <v>45913.61797810689</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/configs/test_diagnostics.xlsx
+++ b/configs/test_diagnostics.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H134"/>
+  <dimension ref="A1:H247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3976,12 +3976,3402 @@
       </c>
       <c r="E134" t="inlineStr"/>
       <c r="F134" s="2" t="n">
-        <v>45913.61797831874</v>
+        <v>45913.61797832176</v>
       </c>
       <c r="G134" s="2" t="n">
-        <v>45913.61797810689</v>
+        <v>45913.61797810185</v>
       </c>
       <c r="H134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" s="2" t="n">
+        <v>45913.64054178241</v>
+      </c>
+      <c r="G135" s="2" t="n">
+        <v>45913.6405415625</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" s="2" t="n">
+        <v>45913.64054178241</v>
+      </c>
+      <c r="G136" s="2" t="n">
+        <v>45913.6405415625</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_Letter-high_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Letter-high</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED_trained_on_Letter-high.joblib</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" s="2" t="n">
+        <v>45913.64732755787</v>
+      </c>
+      <c r="G137" s="2" t="n">
+        <v>45913.6472990625</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_Letter-high_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Letter-high</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED_trained_on_Letter-high.joblib</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" s="2" t="n">
+        <v>45913.65050219907</v>
+      </c>
+      <c r="G138" s="2" t="n">
+        <v>45913.65047331018</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_Letter-high_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Letter-high</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED_trained_on_Letter-high.joblib</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" s="2" t="n">
+        <v>45913.65129641203</v>
+      </c>
+      <c r="G139" s="2" t="n">
+        <v>45913.65126802083</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" s="2" t="n">
+        <v>45913.65186983797</v>
+      </c>
+      <c r="G140" s="2" t="n">
+        <v>45913.65186961806</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" s="2" t="n">
+        <v>45913.65186983797</v>
+      </c>
+      <c r="G141" s="2" t="n">
+        <v>45913.65186961806</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" s="2" t="n">
+        <v>45913.65445490741</v>
+      </c>
+      <c r="G142" s="2" t="n">
+        <v>45913.65445467593</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" s="2" t="n">
+        <v>45913.65445490741</v>
+      </c>
+      <c r="G143" s="2" t="n">
+        <v>45913.65445467593</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" s="2" t="n">
+        <v>45913.6546618287</v>
+      </c>
+      <c r="G144" s="2" t="n">
+        <v>45913.65466160879</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" s="2" t="n">
+        <v>45913.6546618287</v>
+      </c>
+      <c r="G145" s="2" t="n">
+        <v>45913.65466160879</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_Letter-high_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Letter-high</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED_trained_on_Letter-high.joblib</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" s="2" t="n">
+        <v>45913.65511253473</v>
+      </c>
+      <c r="G146" s="2" t="n">
+        <v>45913.65508446759</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_Letter-high_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Letter-high</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED_trained_on_Letter-high.joblib</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" s="2" t="n">
+        <v>45913.65564542824</v>
+      </c>
+      <c r="G147" s="2" t="n">
+        <v>45913.65561700232</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_Letter-high_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Letter-high</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED_trained_on_Letter-high.joblib</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" s="2" t="n">
+        <v>45913.66035568287</v>
+      </c>
+      <c r="G148" s="2" t="n">
+        <v>45913.66032637731</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_Letter-high_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Letter-high</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED_trained_on_Letter-high.joblib</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" s="2" t="n">
+        <v>45913.66035568287</v>
+      </c>
+      <c r="G149" s="2" t="n">
+        <v>45913.66032637731</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_Letter-high_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Letter-high</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED_trained_on_Letter-high.joblib</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" s="2" t="n">
+        <v>45913.66196864584</v>
+      </c>
+      <c r="G150" s="2" t="n">
+        <v>45913.6619391088</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_Letter-high_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Letter-high</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED_trained_on_Letter-high.joblib</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" s="2" t="n">
+        <v>45913.66196864584</v>
+      </c>
+      <c r="G151" s="2" t="n">
+        <v>45913.6619391088</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_Letter-high_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Letter-high</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED_trained_on_Letter-high.joblib</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" s="2" t="n">
+        <v>45913.67086850695</v>
+      </c>
+      <c r="G152" s="2" t="n">
+        <v>45913.67083818287</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_Letter-high_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Letter-high</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED_trained_on_Letter-high.joblib</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" s="2" t="n">
+        <v>45913.67086850695</v>
+      </c>
+      <c r="G153" s="2" t="n">
+        <v>45913.67083818287</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_Letter-high_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Letter-high</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED_trained_on_Letter-high.joblib</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" s="2" t="n">
+        <v>45913.67196922454</v>
+      </c>
+      <c r="G154" s="2" t="n">
+        <v>45913.67194067129</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_Letter-high_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Letter-high</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED_trained_on_Letter-high.joblib</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" s="2" t="n">
+        <v>45913.67196922454</v>
+      </c>
+      <c r="G155" s="2" t="n">
+        <v>45913.67194067129</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>WeisfeilerLehman_SVC</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed_trained_on_ENZYMES.joblib</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" s="2" t="n">
+        <v>45913.72767268519</v>
+      </c>
+      <c r="G156" s="2" t="n">
+        <v>45913.7276703588</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>WeisfeilerLehman_SVC</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed_trained_on_ENZYMES.joblib</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" s="2" t="n">
+        <v>45913.72767268519</v>
+      </c>
+      <c r="G157" s="2" t="n">
+        <v>45913.7276703588</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>VertexHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>SVC_VertexHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>SVC_VertexHistogram_precomputed_trained_on_ENZYMES.joblib</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" s="2" t="n">
+        <v>45913.72778729167</v>
+      </c>
+      <c r="G158" s="2" t="n">
+        <v>45913.72778664352</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>VertexHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>SVC_VertexHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>SVC_VertexHistogram_precomputed_trained_on_ENZYMES.joblib</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr"/>
+      <c r="F159" s="2" t="n">
+        <v>45913.72778729167</v>
+      </c>
+      <c r="G159" s="2" t="n">
+        <v>45913.72778664352</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>EdgeHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>SVC_EdgeHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>SVC_EdgeHistogram_precomputed_trained_on_ENZYMES.joblib</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr"/>
+      <c r="F160" s="2" t="n">
+        <v>45913.72780873843</v>
+      </c>
+      <c r="G160" s="2" t="n">
+        <v>45913.72780748842</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>EdgeHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>SVC_EdgeHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>SVC_EdgeHistogram_precomputed_trained_on_ENZYMES.joblib</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr"/>
+      <c r="F161" s="2" t="n">
+        <v>45913.72780873843</v>
+      </c>
+      <c r="G161" s="2" t="n">
+        <v>45913.72780748842</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>CombinedHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_precomputed_trained_on_ENZYMES.joblib</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" s="2" t="n">
+        <v>45913.72783034722</v>
+      </c>
+      <c r="G162" s="2" t="n">
+        <v>45913.72782857639</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>CombinedHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_precomputed_trained_on_ENZYMES.joblib</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr"/>
+      <c r="F163" s="2" t="n">
+        <v>45913.72783034722</v>
+      </c>
+      <c r="G163" s="2" t="n">
+        <v>45913.72782857639</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>NX_Histogram_SVC</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>SVC_NX_combined_Histogram_rbf</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>SVC_NX_combined_Histogram_rbf_trained_on_ENZYMES.joblib</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr"/>
+      <c r="F164" s="2" t="n">
+        <v>45913.72791674769</v>
+      </c>
+      <c r="G164" s="2" t="n">
+        <v>45913.72789449074</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>WeisfeilerLehman_SVC</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed_trained_on_ENZYMES.joblib</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr"/>
+      <c r="F165" s="2" t="n">
+        <v>45913.73409707176</v>
+      </c>
+      <c r="G165" s="2" t="n">
+        <v>45913.73409509259</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>WeisfeilerLehman_SVC</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed_trained_on_ENZYMES.joblib</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr"/>
+      <c r="F166" s="2" t="n">
+        <v>45913.73409707176</v>
+      </c>
+      <c r="G166" s="2" t="n">
+        <v>45913.73409509259</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>VertexHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>SVC_VertexHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>SVC_VertexHistogram_precomputed_trained_on_ENZYMES.joblib</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr"/>
+      <c r="F167" s="2" t="n">
+        <v>45913.73419482639</v>
+      </c>
+      <c r="G167" s="2" t="n">
+        <v>45913.73419340278</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>VertexHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>SVC_VertexHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>SVC_VertexHistogram_precomputed_trained_on_ENZYMES.joblib</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr"/>
+      <c r="F168" s="2" t="n">
+        <v>45913.73419482639</v>
+      </c>
+      <c r="G168" s="2" t="n">
+        <v>45913.73419340278</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>EdgeHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>SVC_EdgeHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>SVC_EdgeHistogram_precomputed_trained_on_ENZYMES.joblib</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr"/>
+      <c r="F169" s="2" t="n">
+        <v>45913.73421505787</v>
+      </c>
+      <c r="G169" s="2" t="n">
+        <v>45913.7342138426</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>EdgeHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>SVC_EdgeHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>SVC_EdgeHistogram_precomputed_trained_on_ENZYMES.joblib</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr"/>
+      <c r="F170" s="2" t="n">
+        <v>45913.73421505787</v>
+      </c>
+      <c r="G170" s="2" t="n">
+        <v>45913.7342138426</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>CombinedHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_precomputed_trained_on_ENZYMES.joblib</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr"/>
+      <c r="F171" s="2" t="n">
+        <v>45913.73423682871</v>
+      </c>
+      <c r="G171" s="2" t="n">
+        <v>45913.73423395833</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>CombinedHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_precomputed_trained_on_ENZYMES.joblib</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr"/>
+      <c r="F172" s="2" t="n">
+        <v>45913.73423682871</v>
+      </c>
+      <c r="G172" s="2" t="n">
+        <v>45913.73423395833</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>NX_Histogram_SVC</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>SVC_NX_combined_Histogram_rbf</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>SVC_NX_combined_Histogram_rbf_trained_on_ENZYMES.joblib</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" s="2" t="n">
+        <v>45913.7342797338</v>
+      </c>
+      <c r="G173" s="2" t="n">
+        <v>45913.73427939815</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>NX_Histogram_SVC</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>SVC_NX_combined_Histogram_rbf</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>SVC_NX_combined_Histogram_rbf_trained_on_ENZYMES.joblib</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr"/>
+      <c r="F174" s="2" t="n">
+        <v>45913.7342797338</v>
+      </c>
+      <c r="G174" s="2" t="n">
+        <v>45913.73427939815</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Blind_Classifier</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Blind_Classifier</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Blind_Classifier_trained_on_ENZYMES.joblib</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr"/>
+      <c r="F175" s="2" t="n">
+        <v>45913.73772368056</v>
+      </c>
+      <c r="G175" s="2" t="n">
+        <v>45913.73772363426</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Blind_Classifier</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Blind_Classifier</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Blind_Classifier_trained_on_ENZYMES.joblib</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr"/>
+      <c r="F176" s="2" t="n">
+        <v>45913.73772368056</v>
+      </c>
+      <c r="G176" s="2" t="n">
+        <v>45913.73772363426</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Random_Classifier</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>RandomGuesser_uniform</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>RandomGuesser_uniform_trained_on_ENZYMES.joblib</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr"/>
+      <c r="F177" s="2" t="n">
+        <v>45913.73772914352</v>
+      </c>
+      <c r="G177" s="2" t="n">
+        <v>45913.73772913194</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Random_Classifier</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>RandomGuesser_uniform</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>RandomGuesser_uniform_trained_on_ENZYMES.joblib</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr"/>
+      <c r="F178" s="2" t="n">
+        <v>45913.73772914352</v>
+      </c>
+      <c r="G178" s="2" t="n">
+        <v>45913.73772913194</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>GED_KNN</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>(1)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>(1)-NN_Classifier_GED_trained_on_ENZYMES.joblib</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr"/>
+      <c r="F179" s="2" t="n">
+        <v>45913.73773995371</v>
+      </c>
+      <c r="G179" s="2" t="n">
+        <v>45913.7377378588</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>GED_KNN</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>(1)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>(1)-NN_Classifier_GED_trained_on_ENZYMES.joblib</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr"/>
+      <c r="F180" s="2" t="n">
+        <v>45913.73773995371</v>
+      </c>
+      <c r="G180" s="2" t="n">
+        <v>45913.7377378588</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Base_GED_SVC</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed_trained_on_ENZYMES.joblib</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr"/>
+      <c r="F181" s="2" t="n">
+        <v>45913.73805092592</v>
+      </c>
+      <c r="G181" s="2" t="n">
+        <v>45913.73804820602</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Base_GED_SVC</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed_trained_on_ENZYMES.joblib</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" s="2" t="n">
+        <v>45913.73805092592</v>
+      </c>
+      <c r="G182" s="2" t="n">
+        <v>45913.73804820602</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>WeisfeilerLehman_SVC</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed_trained_on_ENZYMES.joblib</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" s="2" t="n">
+        <v>45913.74150092593</v>
+      </c>
+      <c r="G183" s="2" t="n">
+        <v>45913.74149896991</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>VertexHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>SVC_VertexHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>SVC_VertexHistogram_precomputed_trained_on_ENZYMES.joblib</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" s="2" t="n">
+        <v>45913.74150371528</v>
+      </c>
+      <c r="G184" s="2" t="n">
+        <v>45913.74150259259</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>EdgeHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>SVC_EdgeHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>SVC_EdgeHistogram_precomputed_trained_on_ENZYMES.joblib</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr"/>
+      <c r="F185" s="2" t="n">
+        <v>45913.7415065625</v>
+      </c>
+      <c r="G185" s="2" t="n">
+        <v>45913.7415050463</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>CombinedHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_precomputed_trained_on_ENZYMES.joblib</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr"/>
+      <c r="F186" s="2" t="n">
+        <v>45913.74151126157</v>
+      </c>
+      <c r="G186" s="2" t="n">
+        <v>45913.74150787037</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>NX_Histogram_SVC</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>SVC_NX_combined_Histogram_rbf</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>SVC_NX_combined_Histogram_rbf_trained_on_ENZYMES.joblib</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr"/>
+      <c r="F187" s="2" t="n">
+        <v>45913.74151291667</v>
+      </c>
+      <c r="G187" s="2" t="n">
+        <v>45913.74151258102</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Blind_Classifier</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Blind_Classifier</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Blind_Classifier_trained_on_ENZYMES.joblib</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr"/>
+      <c r="F188" s="2" t="n">
+        <v>45913.74151423611</v>
+      </c>
+      <c r="G188" s="2" t="n">
+        <v>45913.74151418982</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Random_Classifier</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>RandomGuesser_uniform</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>RandomGuesser_uniform_trained_on_ENZYMES.joblib</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr"/>
+      <c r="F189" s="2" t="n">
+        <v>45913.74151543981</v>
+      </c>
+      <c r="G189" s="2" t="n">
+        <v>45913.74151542824</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>GED_KNN</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>(1)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>(1)-NN_Classifier_GED_trained_on_ENZYMES.joblib</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr"/>
+      <c r="F190" s="2" t="n">
+        <v>45913.74151877315</v>
+      </c>
+      <c r="G190" s="2" t="n">
+        <v>45913.74151664352</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Base_GED_SVC</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed_trained_on_ENZYMES.joblib</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr"/>
+      <c r="F191" s="2" t="n">
+        <v>45913.7415230787</v>
+      </c>
+      <c r="G191" s="2" t="n">
+        <v>45913.74152054398</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_Letter-high_with_SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Letter-high</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed_trained_on_Letter-high.joblib</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr"/>
+      <c r="F192" s="2" t="n">
+        <v>45913.75743936343</v>
+      </c>
+      <c r="G192" s="2" t="n">
+        <v>45913.75740873843</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>WeisfeilerLehman_SVC</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed_trained_on_ENZYMES.joblib</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr"/>
+      <c r="F193" s="2" t="n">
+        <v>45913.75912180555</v>
+      </c>
+      <c r="G193" s="2" t="n">
+        <v>45913.75911980324</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>VertexHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>SVC_VertexHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>SVC_VertexHistogram_precomputed_trained_on_ENZYMES.joblib</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr"/>
+      <c r="F194" s="2" t="n">
+        <v>45913.75912462963</v>
+      </c>
+      <c r="G194" s="2" t="n">
+        <v>45913.75912350694</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>EdgeHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>SVC_EdgeHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>SVC_EdgeHistogram_precomputed_trained_on_ENZYMES.joblib</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr"/>
+      <c r="F195" s="2" t="n">
+        <v>45913.75912762732</v>
+      </c>
+      <c r="G195" s="2" t="n">
+        <v>45913.75912600695</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>CombinedHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_precomputed_trained_on_ENZYMES.joblib</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr"/>
+      <c r="F196" s="2" t="n">
+        <v>45913.75913237269</v>
+      </c>
+      <c r="G196" s="2" t="n">
+        <v>45913.7591290162</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>NX_Histogram_SVC</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>SVC_NX_combined_Histogram_rbf</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>SVC_NX_combined_Histogram_rbf_trained_on_ENZYMES.joblib</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr"/>
+      <c r="F197" s="2" t="n">
+        <v>45913.75913407408</v>
+      </c>
+      <c r="G197" s="2" t="n">
+        <v>45913.75913373843</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Blind_Classifier</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Blind_Classifier</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Blind_Classifier_trained_on_ENZYMES.joblib</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr"/>
+      <c r="F198" s="2" t="n">
+        <v>45913.75913543982</v>
+      </c>
+      <c r="G198" s="2" t="n">
+        <v>45913.75913539352</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Random_Classifier</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>RandomGuesser_uniform</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>RandomGuesser_uniform_trained_on_ENZYMES.joblib</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" s="2" t="n">
+        <v>45913.75913670139</v>
+      </c>
+      <c r="G199" s="2" t="n">
+        <v>45913.75913668981</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>GED_KNN</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>(1)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>(1)-NN_Classifier_GED_trained_on_ENZYMES.joblib</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" s="2" t="n">
+        <v>45913.75914</v>
+      </c>
+      <c r="G200" s="2" t="n">
+        <v>45913.75913793981</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Base_GED_SVC</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed_trained_on_ENZYMES.joblib</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" s="2" t="n">
+        <v>45913.7591447801</v>
+      </c>
+      <c r="G201" s="2" t="n">
+        <v>45913.75914224537</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>DIFFUSION_GED_SVC</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed_trained_on_ENZYMES.joblib</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr"/>
+      <c r="F202" s="2" t="n">
+        <v>45913.75914881944</v>
+      </c>
+      <c r="G202" s="2" t="n">
+        <v>45913.75914665509</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Trivial_GED_SVC</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>SVC_Trivial-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>SVC_Trivial-GED_precomputed_trained_on_ENZYMES.joblib</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr"/>
+      <c r="F203" s="2" t="n">
+        <v>45913.75915319444</v>
+      </c>
+      <c r="G203" s="2" t="n">
+        <v>45913.75915061343</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Simple_Prototype_GED_SVC</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>SVC_Simple_Prototype_GED_poly</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>SVC_Simple_Prototype_GED_poly_trained_on_ENZYMES.joblib</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr"/>
+      <c r="F204" s="2" t="n">
+        <v>45913.7591571412</v>
+      </c>
+      <c r="G204" s="2" t="n">
+        <v>45913.75915510417</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>ZERO_GED_SVC</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed_trained_on_ENZYMES.joblib</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr"/>
+      <c r="F205" s="2" t="n">
+        <v>45913.75919875</v>
+      </c>
+      <c r="G205" s="2" t="n">
+        <v>45913.7591584375</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>WeisfeilerLehman_SVC</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed_trained_on_ENZYMES.joblib</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr"/>
+      <c r="F206" s="2" t="n">
+        <v>45913.76580666667</v>
+      </c>
+      <c r="G206" s="2" t="n">
+        <v>45913.76580467592</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>WeisfeilerLehman_SVC</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed_trained_on_ENZYMES.joblib</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr"/>
+      <c r="F207" s="2" t="n">
+        <v>45913.76580666667</v>
+      </c>
+      <c r="G207" s="2" t="n">
+        <v>45913.76580467592</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>VertexHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>SVC_VertexHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>SVC_VertexHistogram_precomputed_trained_on_ENZYMES.joblib</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr"/>
+      <c r="F208" s="2" t="n">
+        <v>45913.765909375</v>
+      </c>
+      <c r="G208" s="2" t="n">
+        <v>45913.765908125</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>VertexHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>SVC_VertexHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>SVC_VertexHistogram_precomputed_trained_on_ENZYMES.joblib</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr"/>
+      <c r="F209" s="2" t="n">
+        <v>45913.765909375</v>
+      </c>
+      <c r="G209" s="2" t="n">
+        <v>45913.765908125</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>EdgeHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>SVC_EdgeHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>SVC_EdgeHistogram_precomputed_trained_on_ENZYMES.joblib</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" s="2" t="n">
+        <v>45913.76593446759</v>
+      </c>
+      <c r="G210" s="2" t="n">
+        <v>45913.76593327546</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>EdgeHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>SVC_EdgeHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>SVC_EdgeHistogram_precomputed_trained_on_ENZYMES.joblib</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" s="2" t="n">
+        <v>45913.76593446759</v>
+      </c>
+      <c r="G211" s="2" t="n">
+        <v>45913.76593327546</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>CombinedHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_precomputed_trained_on_ENZYMES.joblib</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr"/>
+      <c r="F212" s="2" t="n">
+        <v>45913.76595641204</v>
+      </c>
+      <c r="G212" s="2" t="n">
+        <v>45913.76595368056</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>CombinedHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_precomputed_trained_on_ENZYMES.joblib</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr"/>
+      <c r="F213" s="2" t="n">
+        <v>45913.76595641204</v>
+      </c>
+      <c r="G213" s="2" t="n">
+        <v>45913.76595368056</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Blind_Classifier</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Blind_Classifier</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Blind_Classifier_trained_on_ENZYMES.joblib</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr"/>
+      <c r="F214" s="2" t="n">
+        <v>45913.76600538194</v>
+      </c>
+      <c r="G214" s="2" t="n">
+        <v>45913.76600534722</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Blind_Classifier</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Blind_Classifier</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Blind_Classifier_trained_on_ENZYMES.joblib</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr"/>
+      <c r="F215" s="2" t="n">
+        <v>45913.76600538194</v>
+      </c>
+      <c r="G215" s="2" t="n">
+        <v>45913.76600534722</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Random_Classifier</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>RandomGuesser_uniform</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>RandomGuesser_uniform_trained_on_ENZYMES.joblib</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" s="2" t="n">
+        <v>45913.76601087963</v>
+      </c>
+      <c r="G216" s="2" t="n">
+        <v>45913.76601086806</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Random_Classifier</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>RandomGuesser_uniform</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>RandomGuesser_uniform_trained_on_ENZYMES.joblib</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" s="2" t="n">
+        <v>45913.76601087963</v>
+      </c>
+      <c r="G217" s="2" t="n">
+        <v>45913.76601086806</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>GED_KNN</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>(1)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>(1)-NN_Classifier_GED_trained_on_ENZYMES.joblib</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" s="2" t="n">
+        <v>45913.76602247686</v>
+      </c>
+      <c r="G218" s="2" t="n">
+        <v>45913.7660203125</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>WeisfeilerLehman_SVC</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed_trained_on_PTC_FR.joblib</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr"/>
+      <c r="F219" s="2" t="n">
+        <v>45913.77742121528</v>
+      </c>
+      <c r="G219" s="2" t="n">
+        <v>45913.77742072917</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>WeisfeilerLehman_SVC</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed_trained_on_PTC_FR.joblib</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr"/>
+      <c r="F220" s="2" t="n">
+        <v>45913.77742121528</v>
+      </c>
+      <c r="G220" s="2" t="n">
+        <v>45913.77742072917</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>VertexHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>SVC_VertexHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>SVC_VertexHistogram_precomputed_trained_on_PTC_FR.joblib</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" s="2" t="n">
+        <v>45913.7774569213</v>
+      </c>
+      <c r="G221" s="2" t="n">
+        <v>45913.77745672454</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>VertexHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>SVC_VertexHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>SVC_VertexHistogram_precomputed_trained_on_PTC_FR.joblib</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr"/>
+      <c r="F222" s="2" t="n">
+        <v>45913.7774569213</v>
+      </c>
+      <c r="G222" s="2" t="n">
+        <v>45913.77745672454</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>EdgeHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>SVC_EdgeHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>SVC_EdgeHistogram_precomputed_trained_on_PTC_FR.joblib</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr"/>
+      <c r="F223" s="2" t="n">
+        <v>45913.77746459491</v>
+      </c>
+      <c r="G223" s="2" t="n">
+        <v>45913.77746444444</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>EdgeHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>SVC_EdgeHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>SVC_EdgeHistogram_precomputed_trained_on_PTC_FR.joblib</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr"/>
+      <c r="F224" s="2" t="n">
+        <v>45913.77746459491</v>
+      </c>
+      <c r="G224" s="2" t="n">
+        <v>45913.77746444444</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>CombinedHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_precomputed_trained_on_PTC_FR.joblib</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr"/>
+      <c r="F225" s="2" t="n">
+        <v>45913.77747375</v>
+      </c>
+      <c r="G225" s="2" t="n">
+        <v>45913.77747347222</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>CombinedHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_precomputed_trained_on_PTC_FR.joblib</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr"/>
+      <c r="F226" s="2" t="n">
+        <v>45913.77747375</v>
+      </c>
+      <c r="G226" s="2" t="n">
+        <v>45913.77747347222</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Blind_Classifier</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Blind_Classifier</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Blind_Classifier_trained_on_PTC_FR.joblib</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr"/>
+      <c r="F227" s="2" t="n">
+        <v>45913.77748542824</v>
+      </c>
+      <c r="G227" s="2" t="n">
+        <v>45913.77748541666</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Blind_Classifier</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Blind_Classifier</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>Blind_Classifier_trained_on_PTC_FR.joblib</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" s="2" t="n">
+        <v>45913.77748542824</v>
+      </c>
+      <c r="G228" s="2" t="n">
+        <v>45913.77748541666</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Random_Classifier</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>RandomGuesser_uniform</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>RandomGuesser_uniform_trained_on_PTC_FR.joblib</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" s="2" t="n">
+        <v>45913.77748913194</v>
+      </c>
+      <c r="G229" s="2" t="n">
+        <v>45913.77748912037</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Random_Classifier</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>RandomGuesser_uniform</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>RandomGuesser_uniform_trained_on_PTC_FR.joblib</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr"/>
+      <c r="F230" s="2" t="n">
+        <v>45913.77748913194</v>
+      </c>
+      <c r="G230" s="2" t="n">
+        <v>45913.77748912037</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>GED_KNN</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>(1)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>(1)-NN_Classifier_GED_trained_on_PTC_FR.joblib</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr"/>
+      <c r="F231" s="2" t="n">
+        <v>45913.77749597222</v>
+      </c>
+      <c r="G231" s="2" t="n">
+        <v>45913.7774952662</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>WeisfeilerLehman_SVC</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed_trained_on_PTC_FR.joblib</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr"/>
+      <c r="F232" s="2" t="n">
+        <v>45913.77913434028</v>
+      </c>
+      <c r="G232" s="2" t="n">
+        <v>45913.77913383102</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>WeisfeilerLehman_SVC</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed_trained_on_PTC_FR.joblib</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr"/>
+      <c r="F233" s="2" t="n">
+        <v>45913.77913434028</v>
+      </c>
+      <c r="G233" s="2" t="n">
+        <v>45913.77913383102</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>VertexHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>SVC_VertexHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>SVC_VertexHistogram_precomputed_trained_on_PTC_FR.joblib</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr"/>
+      <c r="F234" s="2" t="n">
+        <v>45913.77916840278</v>
+      </c>
+      <c r="G234" s="2" t="n">
+        <v>45913.7791682176</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>VertexHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>SVC_VertexHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>SVC_VertexHistogram_precomputed_trained_on_PTC_FR.joblib</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr"/>
+      <c r="F235" s="2" t="n">
+        <v>45913.77916840278</v>
+      </c>
+      <c r="G235" s="2" t="n">
+        <v>45913.7791682176</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>EdgeHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>SVC_EdgeHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>SVC_EdgeHistogram_precomputed_trained_on_PTC_FR.joblib</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr"/>
+      <c r="F236" s="2" t="n">
+        <v>45913.77917584491</v>
+      </c>
+      <c r="G236" s="2" t="n">
+        <v>45913.77917570602</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>EdgeHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>SVC_EdgeHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>SVC_EdgeHistogram_precomputed_trained_on_PTC_FR.joblib</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr"/>
+      <c r="F237" s="2" t="n">
+        <v>45913.77917584491</v>
+      </c>
+      <c r="G237" s="2" t="n">
+        <v>45913.77917570602</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>CombinedHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_precomputed_trained_on_PTC_FR.joblib</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr"/>
+      <c r="F238" s="2" t="n">
+        <v>45913.77918513889</v>
+      </c>
+      <c r="G238" s="2" t="n">
+        <v>45913.77918490741</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>CombinedHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_precomputed_trained_on_PTC_FR.joblib</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr"/>
+      <c r="F239" s="2" t="n">
+        <v>45913.77918513889</v>
+      </c>
+      <c r="G239" s="2" t="n">
+        <v>45913.77918490741</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Blind_Classifier</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Blind_Classifier</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Blind_Classifier_trained_on_PTC_FR.joblib</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr"/>
+      <c r="F240" s="2" t="n">
+        <v>45913.77919666667</v>
+      </c>
+      <c r="G240" s="2" t="n">
+        <v>45913.77919665509</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Blind_Classifier</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Blind_Classifier</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Blind_Classifier_trained_on_PTC_FR.joblib</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr"/>
+      <c r="F241" s="2" t="n">
+        <v>45913.77919666667</v>
+      </c>
+      <c r="G241" s="2" t="n">
+        <v>45913.77919665509</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Random_Classifier</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>RandomGuesser_uniform</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>RandomGuesser_uniform_trained_on_PTC_FR.joblib</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr"/>
+      <c r="F242" s="2" t="n">
+        <v>45913.7792002662</v>
+      </c>
+      <c r="G242" s="2" t="n">
+        <v>45913.77920025463</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Random_Classifier</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>RandomGuesser_uniform</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>RandomGuesser_uniform_trained_on_PTC_FR.joblib</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr"/>
+      <c r="F243" s="2" t="n">
+        <v>45913.7792002662</v>
+      </c>
+      <c r="G243" s="2" t="n">
+        <v>45913.77920025463</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>GED_KNN</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>(1)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>(1)-NN_Classifier_GED_trained_on_PTC_FR.joblib</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr"/>
+      <c r="F244" s="2" t="n">
+        <v>45913.7792075</v>
+      </c>
+      <c r="G244" s="2" t="n">
+        <v>45913.77920675926</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>GED_KNN</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>(1)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>(1)-NN_Classifier_GED_trained_on_PTC_FR.joblib</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr"/>
+      <c r="F245" s="2" t="n">
+        <v>45913.7792075</v>
+      </c>
+      <c r="G245" s="2" t="n">
+        <v>45913.77920675926</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Base_GED_SVC</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed_trained_on_PTC_FR.joblib</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr"/>
+      <c r="F246" s="2" t="n">
+        <v>45913.7803690625</v>
+      </c>
+      <c r="G246" s="2" t="n">
+        <v>45913.78036820602</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Base_GED_SVC</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed_trained_on_PTC_FR.joblib</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr"/>
+      <c r="F247" s="2" t="n">
+        <v>45913.78036906252</v>
+      </c>
+      <c r="G247" s="2" t="n">
+        <v>45913.7803682099</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/configs/test_diagnostics.xlsx
+++ b/configs/test_diagnostics.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H247"/>
+  <dimension ref="A1:H322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7366,12 +7366,2262 @@
       </c>
       <c r="E247" t="inlineStr"/>
       <c r="F247" s="2" t="n">
-        <v>45913.78036906252</v>
+        <v>45913.7803690625</v>
       </c>
       <c r="G247" s="2" t="n">
-        <v>45913.7803682099</v>
+        <v>45913.78036820602</v>
       </c>
       <c r="H247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>WeisfeilerLehman_SVC</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr"/>
+      <c r="F248" s="2" t="n">
+        <v>45914.49255392361</v>
+      </c>
+      <c r="G248" s="2" t="n">
+        <v>45914.49255363426</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>WeisfeilerLehman_SVC</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr"/>
+      <c r="F249" s="2" t="n">
+        <v>45914.49255392361</v>
+      </c>
+      <c r="G249" s="2" t="n">
+        <v>45914.49255363426</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>VertexHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>SVC_VertexHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>SVC_VertexHistogram_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr"/>
+      <c r="F250" s="2" t="n">
+        <v>45914.4925780324</v>
+      </c>
+      <c r="G250" s="2" t="n">
+        <v>45914.49257795139</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>VertexHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>SVC_VertexHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>SVC_VertexHistogram_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr"/>
+      <c r="F251" s="2" t="n">
+        <v>45914.4925780324</v>
+      </c>
+      <c r="G251" s="2" t="n">
+        <v>45914.49257795139</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>EdgeHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>SVC_EdgeHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>SVC_EdgeHistogram_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr"/>
+      <c r="F252" s="2" t="n">
+        <v>45914.49258380787</v>
+      </c>
+      <c r="G252" s="2" t="n">
+        <v>45914.49258372685</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>EdgeHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>SVC_EdgeHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>SVC_EdgeHistogram_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr"/>
+      <c r="F253" s="2" t="n">
+        <v>45914.49258380787</v>
+      </c>
+      <c r="G253" s="2" t="n">
+        <v>45914.49258372685</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>CombinedHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr"/>
+      <c r="F254" s="2" t="n">
+        <v>45914.49259055556</v>
+      </c>
+      <c r="G254" s="2" t="n">
+        <v>45914.49259046296</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>CombinedHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr"/>
+      <c r="F255" s="2" t="n">
+        <v>45914.49259055556</v>
+      </c>
+      <c r="G255" s="2" t="n">
+        <v>45914.49259046296</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Blind_Classifier</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Blind_Classifier</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>Blind_Classifier_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr"/>
+      <c r="F256" s="2" t="n">
+        <v>45914.49259876157</v>
+      </c>
+      <c r="G256" s="2" t="n">
+        <v>45914.49259875</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Blind_Classifier</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Blind_Classifier</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>Blind_Classifier_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr"/>
+      <c r="F257" s="2" t="n">
+        <v>45914.49259876157</v>
+      </c>
+      <c r="G257" s="2" t="n">
+        <v>45914.49259875</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Random_Classifier</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>RandomGuesser_uniform</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>RandomGuesser_uniform_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr"/>
+      <c r="F258" s="2" t="n">
+        <v>45914.49260319444</v>
+      </c>
+      <c r="G258" s="2" t="n">
+        <v>45914.49260318287</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Random_Classifier</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>RandomGuesser_uniform</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>RandomGuesser_uniform_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr"/>
+      <c r="F259" s="2" t="n">
+        <v>45914.49260319444</v>
+      </c>
+      <c r="G259" s="2" t="n">
+        <v>45914.49260318287</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>GED_KNN</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>(1)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>(1)-NN_Classifier_GED_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr"/>
+      <c r="F260" s="2" t="n">
+        <v>45914.49260769676</v>
+      </c>
+      <c r="G260" s="2" t="n">
+        <v>45914.49260748843</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>GED_KNN</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>(1)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>(1)-NN_Classifier_GED_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr"/>
+      <c r="F261" s="2" t="n">
+        <v>45914.49260769676</v>
+      </c>
+      <c r="G261" s="2" t="n">
+        <v>45914.49260748843</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Base_GED_SVC</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr"/>
+      <c r="F262" s="2" t="n">
+        <v>45914.49292811342</v>
+      </c>
+      <c r="G262" s="2" t="n">
+        <v>45914.49292784722</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Base_GED_SVC</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr"/>
+      <c r="F263" s="2" t="n">
+        <v>45914.49292811342</v>
+      </c>
+      <c r="G263" s="2" t="n">
+        <v>45914.49292784722</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>DIFFUSION_GED_SVC</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr"/>
+      <c r="F264" s="2" t="n">
+        <v>45914.49300329861</v>
+      </c>
+      <c r="G264" s="2" t="n">
+        <v>45914.49300307871</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr"/>
+      <c r="F265" s="2" t="n">
+        <v>45914.49378145833</v>
+      </c>
+      <c r="G265" s="2" t="n">
+        <v>45914.49378122685</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr"/>
+      <c r="F266" s="2" t="n">
+        <v>45914.49378145833</v>
+      </c>
+      <c r="G266" s="2" t="n">
+        <v>45914.49378122685</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr"/>
+      <c r="F267" s="2" t="n">
+        <v>45914.49757309028</v>
+      </c>
+      <c r="G267" s="2" t="n">
+        <v>45914.4975728588</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>WeisfeilerLehman_SVC</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr"/>
+      <c r="F268" s="2" t="n">
+        <v>45914.49808930555</v>
+      </c>
+      <c r="G268" s="2" t="n">
+        <v>45914.49808900463</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>WeisfeilerLehman_SVC</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr"/>
+      <c r="F269" s="2" t="n">
+        <v>45914.49808930555</v>
+      </c>
+      <c r="G269" s="2" t="n">
+        <v>45914.49808900463</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>VertexHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>SVC_VertexHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>SVC_VertexHistogram_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr"/>
+      <c r="F270" s="2" t="n">
+        <v>45914.49811391204</v>
+      </c>
+      <c r="G270" s="2" t="n">
+        <v>45914.49811381944</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>VertexHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>SVC_VertexHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>SVC_VertexHistogram_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr"/>
+      <c r="F271" s="2" t="n">
+        <v>45914.49811391204</v>
+      </c>
+      <c r="G271" s="2" t="n">
+        <v>45914.49811381944</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>EdgeHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>SVC_EdgeHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>SVC_EdgeHistogram_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr"/>
+      <c r="F272" s="2" t="n">
+        <v>45914.49811984954</v>
+      </c>
+      <c r="G272" s="2" t="n">
+        <v>45914.49811975694</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>EdgeHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>SVC_EdgeHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>SVC_EdgeHistogram_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr"/>
+      <c r="F273" s="2" t="n">
+        <v>45914.49811984954</v>
+      </c>
+      <c r="G273" s="2" t="n">
+        <v>45914.49811975694</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>CombinedHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr"/>
+      <c r="F274" s="2" t="n">
+        <v>45914.49812707176</v>
+      </c>
+      <c r="G274" s="2" t="n">
+        <v>45914.49812699074</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>CombinedHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr"/>
+      <c r="F275" s="2" t="n">
+        <v>45914.49812707176</v>
+      </c>
+      <c r="G275" s="2" t="n">
+        <v>45914.49812699074</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Blind_Classifier</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Blind_Classifier</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>Blind_Classifier_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr"/>
+      <c r="F276" s="2" t="n">
+        <v>45914.49813695602</v>
+      </c>
+      <c r="G276" s="2" t="n">
+        <v>45914.49813694444</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Blind_Classifier</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Blind_Classifier</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>Blind_Classifier_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr"/>
+      <c r="F277" s="2" t="n">
+        <v>45914.49813695602</v>
+      </c>
+      <c r="G277" s="2" t="n">
+        <v>45914.49813694444</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Random_Classifier</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>RandomGuesser_uniform</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>RandomGuesser_uniform_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr"/>
+      <c r="F278" s="2" t="n">
+        <v>45914.49814074074</v>
+      </c>
+      <c r="G278" s="2" t="n">
+        <v>45914.49814072916</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Random_Classifier</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>RandomGuesser_uniform</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>RandomGuesser_uniform_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr"/>
+      <c r="F279" s="2" t="n">
+        <v>45914.49814074074</v>
+      </c>
+      <c r="G279" s="2" t="n">
+        <v>45914.49814072916</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>GED_KNN</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>(1)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>(1)-NN_Classifier_GED_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr"/>
+      <c r="F280" s="2" t="n">
+        <v>45914.49814540509</v>
+      </c>
+      <c r="G280" s="2" t="n">
+        <v>45914.49814519676</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>GED_KNN</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>(1)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>(1)-NN_Classifier_GED_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr"/>
+      <c r="F281" s="2" t="n">
+        <v>45914.49814540509</v>
+      </c>
+      <c r="G281" s="2" t="n">
+        <v>45914.49814519676</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Base_GED_SVC</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr"/>
+      <c r="F282" s="2" t="n">
+        <v>45914.4984683912</v>
+      </c>
+      <c r="G282" s="2" t="n">
+        <v>45914.49846814815</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Base_GED_SVC</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr"/>
+      <c r="F283" s="2" t="n">
+        <v>45914.4984683912</v>
+      </c>
+      <c r="G283" s="2" t="n">
+        <v>45914.49846814815</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Trivial_GED_SVC</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>SVC_Trivial-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>SVC_Trivial-GED_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr"/>
+      <c r="F284" s="2" t="n">
+        <v>45914.49854465278</v>
+      </c>
+      <c r="G284" s="2" t="n">
+        <v>45914.49854440973</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Trivial_GED_SVC</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>SVC_Trivial-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>SVC_Trivial-GED_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr"/>
+      <c r="F285" s="2" t="n">
+        <v>45914.49854465278</v>
+      </c>
+      <c r="G285" s="2" t="n">
+        <v>45914.49854440973</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Simple_Prototype_GED_SVC</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>SVC_Simple_Prototype_GED_poly</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>SVC_Simple_Prototype_GED_poly_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr"/>
+      <c r="F286" s="2" t="n">
+        <v>45914.49889940972</v>
+      </c>
+      <c r="G286" s="2" t="n">
+        <v>45914.49889935185</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Simple_Prototype_GED_SVC</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>SVC_Simple_Prototype_GED_poly</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>SVC_Simple_Prototype_GED_poly_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr"/>
+      <c r="F287" s="2" t="n">
+        <v>45914.49889940972</v>
+      </c>
+      <c r="G287" s="2" t="n">
+        <v>45914.49889935185</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>ZERO_GED_SVC</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr"/>
+      <c r="F288" s="2" t="n">
+        <v>45914.50202265046</v>
+      </c>
+      <c r="G288" s="2" t="n">
+        <v>45914.50201883102</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Simple_Prototype_GED_poly</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>SVC_Simple_Prototype_GED_poly</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>SVC_Simple_Prototype_GED_poly_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr"/>
+      <c r="F289" s="2" t="n">
+        <v>45914.50235979167</v>
+      </c>
+      <c r="G289" s="2" t="n">
+        <v>45914.50235964121</v>
+      </c>
+      <c r="H289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Simple_Prototype_GED_poly</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>SVC_Simple_Prototype_GED_poly</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>SVC_Simple_Prototype_GED_poly_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr"/>
+      <c r="F290" s="2" t="n">
+        <v>45914.50235979167</v>
+      </c>
+      <c r="G290" s="2" t="n">
+        <v>45914.50235964121</v>
+      </c>
+      <c r="H290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>WeisfeilerLehman_SVC</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr"/>
+      <c r="F291" s="2" t="n">
+        <v>45914.50637181713</v>
+      </c>
+      <c r="G291" s="2" t="n">
+        <v>45914.5063715162</v>
+      </c>
+      <c r="H291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>WeisfeilerLehman_SVC</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr"/>
+      <c r="F292" s="2" t="n">
+        <v>45914.50637181713</v>
+      </c>
+      <c r="G292" s="2" t="n">
+        <v>45914.5063715162</v>
+      </c>
+      <c r="H292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>VertexHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>SVC_VertexHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>SVC_VertexHistogram_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr"/>
+      <c r="F293" s="2" t="n">
+        <v>45914.50639668982</v>
+      </c>
+      <c r="G293" s="2" t="n">
+        <v>45914.5063966088</v>
+      </c>
+      <c r="H293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>VertexHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>SVC_VertexHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>SVC_VertexHistogram_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr"/>
+      <c r="F294" s="2" t="n">
+        <v>45914.50639668982</v>
+      </c>
+      <c r="G294" s="2" t="n">
+        <v>45914.5063966088</v>
+      </c>
+      <c r="H294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>EdgeHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>SVC_EdgeHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>SVC_EdgeHistogram_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr"/>
+      <c r="F295" s="2" t="n">
+        <v>45914.50640420139</v>
+      </c>
+      <c r="G295" s="2" t="n">
+        <v>45914.50640412037</v>
+      </c>
+      <c r="H295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>EdgeHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>SVC_EdgeHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>SVC_EdgeHistogram_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr"/>
+      <c r="F296" s="2" t="n">
+        <v>45914.50640420139</v>
+      </c>
+      <c r="G296" s="2" t="n">
+        <v>45914.50640412037</v>
+      </c>
+      <c r="H296" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>CombinedHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr"/>
+      <c r="F297" s="2" t="n">
+        <v>45914.50641081019</v>
+      </c>
+      <c r="G297" s="2" t="n">
+        <v>45914.50641070602</v>
+      </c>
+      <c r="H297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>CombinedHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr"/>
+      <c r="F298" s="2" t="n">
+        <v>45914.50641081019</v>
+      </c>
+      <c r="G298" s="2" t="n">
+        <v>45914.50641070602</v>
+      </c>
+      <c r="H298" t="inlineStr"/>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Blind_Classifier</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Blind_Classifier</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>Blind_Classifier_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr"/>
+      <c r="F299" s="2" t="n">
+        <v>45914.5064202662</v>
+      </c>
+      <c r="G299" s="2" t="n">
+        <v>45914.50642024306</v>
+      </c>
+      <c r="H299" t="inlineStr"/>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Blind_Classifier</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Blind_Classifier</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>Blind_Classifier_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr"/>
+      <c r="F300" s="2" t="n">
+        <v>45914.5064202662</v>
+      </c>
+      <c r="G300" s="2" t="n">
+        <v>45914.50642024306</v>
+      </c>
+      <c r="H300" t="inlineStr"/>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Random_Classifier</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>RandomGuesser_uniform</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>RandomGuesser_uniform_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr"/>
+      <c r="F301" s="2" t="n">
+        <v>45914.50642432871</v>
+      </c>
+      <c r="G301" s="2" t="n">
+        <v>45914.50642431713</v>
+      </c>
+      <c r="H301" t="inlineStr"/>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Random_Classifier</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>RandomGuesser_uniform</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>RandomGuesser_uniform_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr"/>
+      <c r="F302" s="2" t="n">
+        <v>45914.50642432871</v>
+      </c>
+      <c r="G302" s="2" t="n">
+        <v>45914.50642431713</v>
+      </c>
+      <c r="H302" t="inlineStr"/>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Base_GED_SVC</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr"/>
+      <c r="F303" s="2" t="n">
+        <v>45914.50643028935</v>
+      </c>
+      <c r="G303" s="2" t="n">
+        <v>45914.50643003472</v>
+      </c>
+      <c r="H303" t="inlineStr"/>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Base_GED_SVC</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr"/>
+      <c r="F304" s="2" t="n">
+        <v>45914.50643028935</v>
+      </c>
+      <c r="G304" s="2" t="n">
+        <v>45914.50643003472</v>
+      </c>
+      <c r="H304" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Simple_Prototype_GED_SVC</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>SVC_Simple_Prototype_GED_poly</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>SVC_Simple_Prototype_GED_poly_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr"/>
+      <c r="F305" s="2" t="n">
+        <v>45914.50650611111</v>
+      </c>
+      <c r="G305" s="2" t="n">
+        <v>45914.50650605324</v>
+      </c>
+      <c r="H305" t="inlineStr"/>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>WeisfeilerLehman_SVC</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr"/>
+      <c r="F306" s="2" t="n">
+        <v>45914.50746090278</v>
+      </c>
+      <c r="G306" s="2" t="n">
+        <v>45914.50746060185</v>
+      </c>
+      <c r="H306" t="inlineStr"/>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>WeisfeilerLehman_SVC</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr"/>
+      <c r="F307" s="2" t="n">
+        <v>45914.50746090278</v>
+      </c>
+      <c r="G307" s="2" t="n">
+        <v>45914.50746060185</v>
+      </c>
+      <c r="H307" t="inlineStr"/>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>VertexHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>SVC_VertexHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>SVC_VertexHistogram_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr"/>
+      <c r="F308" s="2" t="n">
+        <v>45914.50748601852</v>
+      </c>
+      <c r="G308" s="2" t="n">
+        <v>45914.50748592593</v>
+      </c>
+      <c r="H308" t="inlineStr"/>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>VertexHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>SVC_VertexHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>SVC_VertexHistogram_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr"/>
+      <c r="F309" s="2" t="n">
+        <v>45914.50748601852</v>
+      </c>
+      <c r="G309" s="2" t="n">
+        <v>45914.50748592593</v>
+      </c>
+      <c r="H309" t="inlineStr"/>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>EdgeHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>SVC_EdgeHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>SVC_EdgeHistogram_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr"/>
+      <c r="F310" s="2" t="n">
+        <v>45914.50749354166</v>
+      </c>
+      <c r="G310" s="2" t="n">
+        <v>45914.50749346065</v>
+      </c>
+      <c r="H310" t="inlineStr"/>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>EdgeHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>SVC_EdgeHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>SVC_EdgeHistogram_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr"/>
+      <c r="F311" s="2" t="n">
+        <v>45914.50749354166</v>
+      </c>
+      <c r="G311" s="2" t="n">
+        <v>45914.50749346065</v>
+      </c>
+      <c r="H311" t="inlineStr"/>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>CombinedHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr"/>
+      <c r="F312" s="2" t="n">
+        <v>45914.50749998842</v>
+      </c>
+      <c r="G312" s="2" t="n">
+        <v>45914.50749988426</v>
+      </c>
+      <c r="H312" t="inlineStr"/>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>CombinedHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr"/>
+      <c r="F313" s="2" t="n">
+        <v>45914.50749998842</v>
+      </c>
+      <c r="G313" s="2" t="n">
+        <v>45914.50749988426</v>
+      </c>
+      <c r="H313" t="inlineStr"/>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Blind_Classifier</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Blind_Classifier</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>Blind_Classifier_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr"/>
+      <c r="F314" s="2" t="n">
+        <v>45914.5075097338</v>
+      </c>
+      <c r="G314" s="2" t="n">
+        <v>45914.50750971065</v>
+      </c>
+      <c r="H314" t="inlineStr"/>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Blind_Classifier</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Blind_Classifier</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>Blind_Classifier_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr"/>
+      <c r="F315" s="2" t="n">
+        <v>45914.5075097338</v>
+      </c>
+      <c r="G315" s="2" t="n">
+        <v>45914.50750971065</v>
+      </c>
+      <c r="H315" t="inlineStr"/>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Random_Classifier</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>RandomGuesser_uniform</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>RandomGuesser_uniform_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr"/>
+      <c r="F316" s="2" t="n">
+        <v>45914.50751393518</v>
+      </c>
+      <c r="G316" s="2" t="n">
+        <v>45914.50751393518</v>
+      </c>
+      <c r="H316" t="inlineStr"/>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Random_Classifier</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>RandomGuesser_uniform</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>RandomGuesser_uniform_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr"/>
+      <c r="F317" s="2" t="n">
+        <v>45914.50751393518</v>
+      </c>
+      <c r="G317" s="2" t="n">
+        <v>45914.50751393518</v>
+      </c>
+      <c r="H317" t="inlineStr"/>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Base_GED_SVC</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr"/>
+      <c r="F318" s="2" t="n">
+        <v>45914.50751982639</v>
+      </c>
+      <c r="G318" s="2" t="n">
+        <v>45914.50751958333</v>
+      </c>
+      <c r="H318" t="inlineStr"/>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Base_GED_SVC</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr"/>
+      <c r="F319" s="2" t="n">
+        <v>45914.50751982639</v>
+      </c>
+      <c r="G319" s="2" t="n">
+        <v>45914.50751958333</v>
+      </c>
+      <c r="H319" t="inlineStr"/>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>ZERO_GED_SVC</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr"/>
+      <c r="F320" s="2" t="n">
+        <v>45914.50759994213</v>
+      </c>
+      <c r="G320" s="2" t="n">
+        <v>45914.50759597222</v>
+      </c>
+      <c r="H320" t="inlineStr"/>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr"/>
+      <c r="F321" s="2" t="n">
+        <v>45914.5868784375</v>
+      </c>
+      <c r="G321" s="2" t="n">
+        <v>45914.58687460648</v>
+      </c>
+      <c r="H321" t="inlineStr"/>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr"/>
+      <c r="F322" s="2" t="n">
+        <v>45914.58759238268</v>
+      </c>
+      <c r="G322" s="2" t="n">
+        <v>45914.58758839835</v>
+      </c>
+      <c r="H322" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/configs/test_diagnostics.xlsx
+++ b/configs/test_diagnostics.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H322"/>
+  <dimension ref="A1:H374"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9616,12 +9616,1572 @@
       </c>
       <c r="E322" t="inlineStr"/>
       <c r="F322" s="2" t="n">
-        <v>45914.58759238268</v>
+        <v>45914.58759238426</v>
       </c>
       <c r="G322" s="2" t="n">
-        <v>45914.58758839835</v>
+        <v>45914.58758840278</v>
       </c>
       <c r="H322" t="inlineStr"/>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Simple_Prototype_GED_poly</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>SVC_Simple_Prototype_GED_poly</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>SVC_Simple_Prototype_GED_poly_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr"/>
+      <c r="F323" s="2" t="n">
+        <v>45915.45059206019</v>
+      </c>
+      <c r="G323" s="2" t="n">
+        <v>45915.45059200231</v>
+      </c>
+      <c r="H323" t="inlineStr"/>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Simple_Prototype_GED_poly</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>SVC_Simple_Prototype_GED_poly</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>SVC_Simple_Prototype_GED_poly_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr"/>
+      <c r="F324" s="2" t="n">
+        <v>45915.4557462037</v>
+      </c>
+      <c r="G324" s="2" t="n">
+        <v>45915.45574609953</v>
+      </c>
+      <c r="H324" t="inlineStr"/>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Simple_Prototype_GED_poly</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>SVC_Simple_Prototype_GED_poly</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>SVC_Simple_Prototype_GED_poly_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr"/>
+      <c r="F325" s="2" t="n">
+        <v>45915.45935439815</v>
+      </c>
+      <c r="G325" s="2" t="n">
+        <v>45915.45935435185</v>
+      </c>
+      <c r="H325" t="inlineStr"/>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Simple_Prototype_GED_poly</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>SVC_Simple_Prototype_GED_poly</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>SVC_Simple_Prototype_GED_poly_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr"/>
+      <c r="F326" s="2" t="n">
+        <v>45915.46226184028</v>
+      </c>
+      <c r="G326" s="2" t="n">
+        <v>45915.46226175926</v>
+      </c>
+      <c r="H326" t="inlineStr"/>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr"/>
+      <c r="F327" s="2" t="n">
+        <v>45915.55921674769</v>
+      </c>
+      <c r="G327" s="2" t="n">
+        <v>45915.55918208334</v>
+      </c>
+      <c r="H327" t="inlineStr"/>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr"/>
+      <c r="F328" s="2" t="n">
+        <v>45915.56171504629</v>
+      </c>
+      <c r="G328" s="2" t="n">
+        <v>45915.56167935185</v>
+      </c>
+      <c r="H328" t="inlineStr"/>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr"/>
+      <c r="F329" s="2" t="n">
+        <v>45915.56189789352</v>
+      </c>
+      <c r="G329" s="2" t="n">
+        <v>45915.56186289352</v>
+      </c>
+      <c r="H329" t="inlineStr"/>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr"/>
+      <c r="F330" s="2" t="n">
+        <v>45915.56295243056</v>
+      </c>
+      <c r="G330" s="2" t="n">
+        <v>45915.56291663194</v>
+      </c>
+      <c r="H330" t="inlineStr"/>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr"/>
+      <c r="F331" s="2" t="n">
+        <v>45915.56396873842</v>
+      </c>
+      <c r="G331" s="2" t="n">
+        <v>45915.5639684838</v>
+      </c>
+      <c r="H331" t="inlineStr"/>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr"/>
+      <c r="F332" s="2" t="n">
+        <v>45915.56530469908</v>
+      </c>
+      <c r="G332" s="2" t="n">
+        <v>45915.56530446759</v>
+      </c>
+      <c r="H332" t="inlineStr"/>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr"/>
+      <c r="F333" s="2" t="n">
+        <v>45915.5655250463</v>
+      </c>
+      <c r="G333" s="2" t="n">
+        <v>45915.56552482639</v>
+      </c>
+      <c r="H333" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr"/>
+      <c r="F334" s="2" t="n">
+        <v>45915.5655250463</v>
+      </c>
+      <c r="G334" s="2" t="n">
+        <v>45915.56552482639</v>
+      </c>
+      <c r="H334" t="inlineStr"/>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr"/>
+      <c r="F335" s="2" t="n">
+        <v>45915.56674121528</v>
+      </c>
+      <c r="G335" s="2" t="n">
+        <v>45915.56674099537</v>
+      </c>
+      <c r="H335" t="inlineStr"/>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr"/>
+      <c r="F336" s="2" t="n">
+        <v>45915.56674121528</v>
+      </c>
+      <c r="G336" s="2" t="n">
+        <v>45915.56674099537</v>
+      </c>
+      <c r="H336" t="inlineStr"/>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr"/>
+      <c r="F337" s="2" t="n">
+        <v>45915.56701509259</v>
+      </c>
+      <c r="G337" s="2" t="n">
+        <v>45915.56701487269</v>
+      </c>
+      <c r="H337" t="inlineStr"/>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr"/>
+      <c r="F338" s="2" t="n">
+        <v>45915.56701509259</v>
+      </c>
+      <c r="G338" s="2" t="n">
+        <v>45915.56701487269</v>
+      </c>
+      <c r="H338" t="inlineStr"/>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Trivial-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>SVC_Trivial-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>SVC_Trivial-GED_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr"/>
+      <c r="F339" s="2" t="n">
+        <v>45915.56791649306</v>
+      </c>
+      <c r="G339" s="2" t="n">
+        <v>45915.56791623843</v>
+      </c>
+      <c r="H339" t="inlineStr"/>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Trivial-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>SVC_Trivial-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>SVC_Trivial-GED_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr"/>
+      <c r="F340" s="2" t="n">
+        <v>45915.56849951389</v>
+      </c>
+      <c r="G340" s="2" t="n">
+        <v>45915.56849908565</v>
+      </c>
+      <c r="H340" t="inlineStr"/>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Trivial-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>SVC_Trivial-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>SVC_Trivial-GED_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr"/>
+      <c r="F341" s="2" t="n">
+        <v>45915.56856888889</v>
+      </c>
+      <c r="G341" s="2" t="n">
+        <v>45915.56856862269</v>
+      </c>
+      <c r="H341" t="inlineStr"/>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_NX_combined_Histogram_rbf</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>SVC_NX_combined_Histogram_rbf</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>SVC_NX_combined_Histogram_rbf_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr"/>
+      <c r="F342" s="2" t="n">
+        <v>45915.56885927083</v>
+      </c>
+      <c r="G342" s="2" t="n">
+        <v>45915.56885921297</v>
+      </c>
+      <c r="H342" t="inlineStr"/>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr"/>
+      <c r="F343" s="2" t="n">
+        <v>45915.56908415509</v>
+      </c>
+      <c r="G343" s="2" t="n">
+        <v>45915.56908385416</v>
+      </c>
+      <c r="H343" t="inlineStr"/>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr"/>
+      <c r="F344" s="2" t="n">
+        <v>45915.56908415509</v>
+      </c>
+      <c r="G344" s="2" t="n">
+        <v>45915.56908385416</v>
+      </c>
+      <c r="H344" t="inlineStr"/>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr"/>
+      <c r="F345" s="2" t="n">
+        <v>45915.56986917824</v>
+      </c>
+      <c r="G345" s="2" t="n">
+        <v>45915.56983217593</v>
+      </c>
+      <c r="H345" t="inlineStr"/>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr"/>
+      <c r="F346" s="2" t="n">
+        <v>45915.57653127315</v>
+      </c>
+      <c r="G346" s="2" t="n">
+        <v>45915.57653099537</v>
+      </c>
+      <c r="H346" t="inlineStr"/>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr"/>
+      <c r="F347" s="2" t="n">
+        <v>45915.57774297454</v>
+      </c>
+      <c r="G347" s="2" t="n">
+        <v>45915.57774253472</v>
+      </c>
+      <c r="H347" t="inlineStr"/>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr"/>
+      <c r="F348" s="2" t="n">
+        <v>45915.59576752315</v>
+      </c>
+      <c r="G348" s="2" t="n">
+        <v>45915.59576725694</v>
+      </c>
+      <c r="H348" t="inlineStr"/>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr"/>
+      <c r="F349" s="2" t="n">
+        <v>45915.59723604166</v>
+      </c>
+      <c r="G349" s="2" t="n">
+        <v>45915.59723578703</v>
+      </c>
+      <c r="H349" t="inlineStr"/>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr"/>
+      <c r="F350" s="2" t="n">
+        <v>45915.5997828125</v>
+      </c>
+      <c r="G350" s="2" t="n">
+        <v>45915.5997825463</v>
+      </c>
+      <c r="H350" t="inlineStr"/>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr"/>
+      <c r="F351" s="2" t="n">
+        <v>45915.60206527778</v>
+      </c>
+      <c r="G351" s="2" t="n">
+        <v>45915.60206482639</v>
+      </c>
+      <c r="H351" t="inlineStr"/>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr"/>
+      <c r="F352" s="2" t="n">
+        <v>45915.60309186343</v>
+      </c>
+      <c r="G352" s="2" t="n">
+        <v>45915.60309142361</v>
+      </c>
+      <c r="H352" t="inlineStr"/>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr"/>
+      <c r="F353" s="2" t="n">
+        <v>45915.60417298611</v>
+      </c>
+      <c r="G353" s="2" t="n">
+        <v>45915.6041727199</v>
+      </c>
+      <c r="H353" t="inlineStr"/>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr"/>
+      <c r="F354" s="2" t="n">
+        <v>45915.61996444444</v>
+      </c>
+      <c r="G354" s="2" t="n">
+        <v>45915.61996418981</v>
+      </c>
+      <c r="H354" t="inlineStr"/>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr"/>
+      <c r="F355" s="2" t="n">
+        <v>45915.62010240741</v>
+      </c>
+      <c r="G355" s="2" t="n">
+        <v>45915.62010212963</v>
+      </c>
+      <c r="H355" t="inlineStr"/>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Base_GED_SVC_linear</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>SVC_Base_GED_SVC_linear</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>SVC_Base_GED_SVC_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr"/>
+      <c r="F356" s="2" t="n">
+        <v>45915.62601511574</v>
+      </c>
+      <c r="G356" s="2" t="n">
+        <v>45915.62601486111</v>
+      </c>
+      <c r="H356" t="inlineStr"/>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Base_GED_SVC_linear</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>SVC_Base_GED_SVC_linear</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>SVC_Base_GED_SVC_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr"/>
+      <c r="F357" s="2" t="n">
+        <v>45915.62601511574</v>
+      </c>
+      <c r="G357" s="2" t="n">
+        <v>45915.62601486111</v>
+      </c>
+      <c r="H357" t="inlineStr"/>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Base_GED_SVC_linear</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>SVC_Base_GED_SVC_linear</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>SVC_Base_GED_SVC_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr"/>
+      <c r="F358" s="2" t="n">
+        <v>45915.62715296296</v>
+      </c>
+      <c r="G358" s="2" t="n">
+        <v>45915.6269769213</v>
+      </c>
+      <c r="H358" t="inlineStr"/>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Base_Kernel_precomputed</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>SVC_Base_Kernel_precomputed</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>SVC_Base_Kernel_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr"/>
+      <c r="F359" s="2" t="n">
+        <v>45915.63686548611</v>
+      </c>
+      <c r="G359" s="2" t="n">
+        <v>45915.63686521991</v>
+      </c>
+      <c r="H359" t="inlineStr"/>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Base_Kernel_precomputed</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>SVC_Base_Kernel_precomputed</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>SVC_Base_Kernel_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr"/>
+      <c r="F360" s="2" t="n">
+        <v>45915.638621875</v>
+      </c>
+      <c r="G360" s="2" t="n">
+        <v>45915.63862162037</v>
+      </c>
+      <c r="H360" t="inlineStr"/>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Trivial-GED_linear</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>SVC_Trivial-GED_linear</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>SVC_Trivial-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr"/>
+      <c r="F361" s="2" t="n">
+        <v>45915.64095225694</v>
+      </c>
+      <c r="G361" s="2" t="n">
+        <v>45915.64095197916</v>
+      </c>
+      <c r="H361" t="inlineStr"/>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Trivial-GED_linear</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>SVC_Trivial-GED_linear</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>SVC_Trivial-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr"/>
+      <c r="F362" s="2" t="n">
+        <v>45915.64120328704</v>
+      </c>
+      <c r="G362" s="2" t="n">
+        <v>45915.64120300926</v>
+      </c>
+      <c r="H362" t="inlineStr"/>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Trivial-GED_linear</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>SVC_Trivial-GED_linear</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>SVC_Trivial-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr"/>
+      <c r="F363" s="2" t="n">
+        <v>45915.64120328704</v>
+      </c>
+      <c r="G363" s="2" t="n">
+        <v>45915.64120300926</v>
+      </c>
+      <c r="H363" t="inlineStr"/>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Random-Walk-Edit_linear</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_linear</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr"/>
+      <c r="F364" s="2" t="n">
+        <v>45915.65248887731</v>
+      </c>
+      <c r="G364" s="2" t="n">
+        <v>45915.65245274305</v>
+      </c>
+      <c r="H364" t="inlineStr"/>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Random-Walk-Edit_linear</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_linear</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr"/>
+      <c r="F365" s="2" t="n">
+        <v>45915.65608396991</v>
+      </c>
+      <c r="G365" s="2" t="n">
+        <v>45915.65604805556</v>
+      </c>
+      <c r="H365" t="inlineStr"/>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Random-Walk-Edit_linear</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_linear</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr"/>
+      <c r="F366" s="2" t="n">
+        <v>45915.65660081019</v>
+      </c>
+      <c r="G366" s="2" t="n">
+        <v>45915.65656510417</v>
+      </c>
+      <c r="H366" t="inlineStr"/>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr"/>
+      <c r="F367" s="2" t="n">
+        <v>45915.66784297454</v>
+      </c>
+      <c r="G367" s="2" t="n">
+        <v>45915.66784271991</v>
+      </c>
+      <c r="H367" t="inlineStr"/>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr"/>
+      <c r="F368" s="2" t="n">
+        <v>45915.66816442129</v>
+      </c>
+      <c r="G368" s="2" t="n">
+        <v>45915.66816418982</v>
+      </c>
+      <c r="H368" t="inlineStr"/>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr"/>
+      <c r="F369" s="2" t="n">
+        <v>45915.67033194444</v>
+      </c>
+      <c r="G369" s="2" t="n">
+        <v>45915.67033170139</v>
+      </c>
+      <c r="H369" t="inlineStr"/>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr"/>
+      <c r="F370" s="2" t="n">
+        <v>45915.6714877199</v>
+      </c>
+      <c r="G370" s="2" t="n">
+        <v>45915.67148748843</v>
+      </c>
+      <c r="H370" t="inlineStr"/>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr"/>
+      <c r="F371" s="2" t="n">
+        <v>45915.67279127315</v>
+      </c>
+      <c r="G371" s="2" t="n">
+        <v>45915.67279104167</v>
+      </c>
+      <c r="H371" t="inlineStr"/>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr"/>
+      <c r="F372" s="2" t="n">
+        <v>45915.67324615741</v>
+      </c>
+      <c r="G372" s="2" t="n">
+        <v>45915.6732459375</v>
+      </c>
+      <c r="H372" t="inlineStr"/>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr"/>
+      <c r="F373" s="2" t="n">
+        <v>45915.67539166666</v>
+      </c>
+      <c r="G373" s="2" t="n">
+        <v>45915.67539143519</v>
+      </c>
+      <c r="H373" t="inlineStr"/>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr"/>
+      <c r="F374" s="2" t="n">
+        <v>45915.67773759227</v>
+      </c>
+      <c r="G374" s="2" t="n">
+        <v>45915.6777373615</v>
+      </c>
+      <c r="H374" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/configs/test_diagnostics.xlsx
+++ b/configs/test_diagnostics.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H374"/>
+  <dimension ref="A1:H403"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11176,12 +11176,882 @@
       </c>
       <c r="E374" t="inlineStr"/>
       <c r="F374" s="2" t="n">
-        <v>45915.67773759227</v>
+        <v>45915.6777375926</v>
       </c>
       <c r="G374" s="2" t="n">
-        <v>45915.6777373615</v>
+        <v>45915.67773736111</v>
       </c>
       <c r="H374" t="inlineStr"/>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr"/>
+      <c r="F375" s="2" t="n">
+        <v>45915.90239358796</v>
+      </c>
+      <c r="G375" s="2" t="n">
+        <v>45915.90238939815</v>
+      </c>
+      <c r="H375" t="inlineStr"/>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr"/>
+      <c r="F376" s="2" t="n">
+        <v>45915.90305</v>
+      </c>
+      <c r="G376" s="2" t="n">
+        <v>45915.90283905093</v>
+      </c>
+      <c r="H376" t="inlineStr"/>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr"/>
+      <c r="F377" s="2" t="n">
+        <v>45915.91021627315</v>
+      </c>
+      <c r="G377" s="2" t="n">
+        <v>45915.90968631944</v>
+      </c>
+      <c r="H377" t="inlineStr"/>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr"/>
+      <c r="F378" s="2" t="n">
+        <v>45915.91075240741</v>
+      </c>
+      <c r="G378" s="2" t="n">
+        <v>45915.91060165509</v>
+      </c>
+      <c r="H378" t="inlineStr"/>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr"/>
+      <c r="F379" s="2" t="n">
+        <v>45915.91097590278</v>
+      </c>
+      <c r="G379" s="2" t="n">
+        <v>45915.91097273148</v>
+      </c>
+      <c r="H379" t="inlineStr"/>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr"/>
+      <c r="F380" s="2" t="n">
+        <v>45915.92173537037</v>
+      </c>
+      <c r="G380" s="2" t="n">
+        <v>45915.92173221065</v>
+      </c>
+      <c r="H380" t="inlineStr"/>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr"/>
+      <c r="F381" s="2" t="n">
+        <v>45915.9218982176</v>
+      </c>
+      <c r="G381" s="2" t="n">
+        <v>45915.92189467593</v>
+      </c>
+      <c r="H381" t="inlineStr"/>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr"/>
+      <c r="F382" s="2" t="n">
+        <v>45915.92199268519</v>
+      </c>
+      <c r="G382" s="2" t="n">
+        <v>45915.92198901621</v>
+      </c>
+      <c r="H382" t="inlineStr"/>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr"/>
+      <c r="F383" s="2" t="n">
+        <v>45915.92215949074</v>
+      </c>
+      <c r="G383" s="2" t="n">
+        <v>45915.92215592592</v>
+      </c>
+      <c r="H383" t="inlineStr"/>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr"/>
+      <c r="F384" s="2" t="n">
+        <v>45915.92252958333</v>
+      </c>
+      <c r="G384" s="2" t="n">
+        <v>45915.92252607639</v>
+      </c>
+      <c r="H384" t="inlineStr"/>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr"/>
+      <c r="F385" s="2" t="n">
+        <v>45915.92266288195</v>
+      </c>
+      <c r="G385" s="2" t="n">
+        <v>45915.92265982639</v>
+      </c>
+      <c r="H385" t="inlineStr"/>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr"/>
+      <c r="F386" s="2" t="n">
+        <v>45915.92331371528</v>
+      </c>
+      <c r="G386" s="2" t="n">
+        <v>45915.92331065972</v>
+      </c>
+      <c r="H386" t="inlineStr"/>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr"/>
+      <c r="F387" s="2" t="n">
+        <v>45915.92477596065</v>
+      </c>
+      <c r="G387" s="2" t="n">
+        <v>45915.92477296296</v>
+      </c>
+      <c r="H387" t="inlineStr"/>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr"/>
+      <c r="F388" s="2" t="n">
+        <v>45915.92644039352</v>
+      </c>
+      <c r="G388" s="2" t="n">
+        <v>45915.92643734954</v>
+      </c>
+      <c r="H388" t="inlineStr"/>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr"/>
+      <c r="F389" s="2" t="n">
+        <v>45915.92711929399</v>
+      </c>
+      <c r="G389" s="2" t="n">
+        <v>45915.92711626158</v>
+      </c>
+      <c r="H389" t="inlineStr"/>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr"/>
+      <c r="F390" s="2" t="n">
+        <v>45915.92757193287</v>
+      </c>
+      <c r="G390" s="2" t="n">
+        <v>45915.92756888889</v>
+      </c>
+      <c r="H390" t="inlineStr"/>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr"/>
+      <c r="F391" s="2" t="n">
+        <v>45915.92806930556</v>
+      </c>
+      <c r="G391" s="2" t="n">
+        <v>45915.92806621527</v>
+      </c>
+      <c r="H391" t="inlineStr"/>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr"/>
+      <c r="F392" s="2" t="n">
+        <v>45915.93155193287</v>
+      </c>
+      <c r="G392" s="2" t="n">
+        <v>45915.93094765046</v>
+      </c>
+      <c r="H392" t="inlineStr"/>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr"/>
+      <c r="F393" s="2" t="n">
+        <v>45915.95589414352</v>
+      </c>
+      <c r="G393" s="2" t="n">
+        <v>45915.9558908912</v>
+      </c>
+      <c r="H393" t="inlineStr"/>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr"/>
+      <c r="F394" s="2" t="n">
+        <v>45915.9568825</v>
+      </c>
+      <c r="G394" s="2" t="n">
+        <v>45915.95687934028</v>
+      </c>
+      <c r="H394" t="inlineStr"/>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr"/>
+      <c r="F395" s="2" t="n">
+        <v>45915.95900917824</v>
+      </c>
+      <c r="G395" s="2" t="n">
+        <v>45915.95900587963</v>
+      </c>
+      <c r="H395" t="inlineStr"/>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr"/>
+      <c r="F396" s="2" t="n">
+        <v>45915.96002582176</v>
+      </c>
+      <c r="G396" s="2" t="n">
+        <v>45915.96002253472</v>
+      </c>
+      <c r="H396" t="inlineStr"/>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr"/>
+      <c r="F397" s="2" t="n">
+        <v>45915.96197258102</v>
+      </c>
+      <c r="G397" s="2" t="n">
+        <v>45915.96196956019</v>
+      </c>
+      <c r="H397" t="inlineStr"/>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr"/>
+      <c r="F398" s="2" t="n">
+        <v>45915.96344083334</v>
+      </c>
+      <c r="G398" s="2" t="n">
+        <v>45915.96343762732</v>
+      </c>
+      <c r="H398" t="inlineStr"/>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr"/>
+      <c r="F399" s="2" t="n">
+        <v>45915.97400869213</v>
+      </c>
+      <c r="G399" s="2" t="n">
+        <v>45915.97400861111</v>
+      </c>
+      <c r="H399" t="inlineStr"/>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr"/>
+      <c r="F400" s="2" t="n">
+        <v>45915.97696756945</v>
+      </c>
+      <c r="G400" s="2" t="n">
+        <v>45915.97696747685</v>
+      </c>
+      <c r="H400" t="inlineStr"/>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr"/>
+      <c r="F401" s="2" t="n">
+        <v>45915.97728130787</v>
+      </c>
+      <c r="G401" s="2" t="n">
+        <v>45915.97723453704</v>
+      </c>
+      <c r="H401" t="inlineStr"/>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr"/>
+      <c r="F402" s="2" t="n">
+        <v>45915.97757503473</v>
+      </c>
+      <c r="G402" s="2" t="n">
+        <v>45915.97757493056</v>
+      </c>
+      <c r="H402" t="inlineStr"/>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr"/>
+      <c r="F403" s="2" t="n">
+        <v>45915.97782832831</v>
+      </c>
+      <c r="G403" s="2" t="n">
+        <v>45915.97782822531</v>
+      </c>
+      <c r="H403" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/configs/test_diagnostics.xlsx
+++ b/configs/test_diagnostics.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H403"/>
+  <dimension ref="A1:H462"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12046,12 +12046,1782 @@
       </c>
       <c r="E403" t="inlineStr"/>
       <c r="F403" s="2" t="n">
-        <v>45915.97782832831</v>
+        <v>45915.97782833334</v>
       </c>
       <c r="G403" s="2" t="n">
-        <v>45915.97782822531</v>
+        <v>45915.97782822917</v>
       </c>
       <c r="H403" t="inlineStr"/>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr"/>
+      <c r="F404" s="2" t="n">
+        <v>45916.97156148148</v>
+      </c>
+      <c r="G404" s="2" t="n">
+        <v>45916.97156123842</v>
+      </c>
+      <c r="H404" t="inlineStr"/>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr"/>
+      <c r="F405" s="2" t="n">
+        <v>45916.97231358796</v>
+      </c>
+      <c r="G405" s="2" t="n">
+        <v>45916.97231335648</v>
+      </c>
+      <c r="H405" t="inlineStr"/>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr"/>
+      <c r="F406" s="2" t="n">
+        <v>45916.97317077546</v>
+      </c>
+      <c r="G406" s="2" t="n">
+        <v>45916.97317054398</v>
+      </c>
+      <c r="H406" t="inlineStr"/>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr"/>
+      <c r="F407" s="2" t="n">
+        <v>45916.97317077546</v>
+      </c>
+      <c r="G407" s="2" t="n">
+        <v>45916.97317054398</v>
+      </c>
+      <c r="H407" t="inlineStr"/>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr"/>
+      <c r="F408" s="2" t="n">
+        <v>45916.97340633102</v>
+      </c>
+      <c r="G408" s="2" t="n">
+        <v>45916.97340609954</v>
+      </c>
+      <c r="H408" t="inlineStr"/>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr"/>
+      <c r="F409" s="2" t="n">
+        <v>45916.97340633102</v>
+      </c>
+      <c r="G409" s="2" t="n">
+        <v>45916.97340609954</v>
+      </c>
+      <c r="H409" t="inlineStr"/>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr"/>
+      <c r="F410" s="2" t="n">
+        <v>45916.9735682176</v>
+      </c>
+      <c r="G410" s="2" t="n">
+        <v>45916.97356798611</v>
+      </c>
+      <c r="H410" t="inlineStr"/>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr"/>
+      <c r="F411" s="2" t="n">
+        <v>45916.97385237268</v>
+      </c>
+      <c r="G411" s="2" t="n">
+        <v>45916.97385212963</v>
+      </c>
+      <c r="H411" t="inlineStr"/>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr"/>
+      <c r="F412" s="2" t="n">
+        <v>45916.97385237268</v>
+      </c>
+      <c r="G412" s="2" t="n">
+        <v>45916.97385212963</v>
+      </c>
+      <c r="H412" t="inlineStr"/>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr"/>
+      <c r="F413" s="2" t="n">
+        <v>45916.97405048611</v>
+      </c>
+      <c r="G413" s="2" t="n">
+        <v>45916.97405025463</v>
+      </c>
+      <c r="H413" t="inlineStr"/>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr"/>
+      <c r="F414" s="2" t="n">
+        <v>45916.97434925926</v>
+      </c>
+      <c r="G414" s="2" t="n">
+        <v>45916.97434902778</v>
+      </c>
+      <c r="H414" t="inlineStr"/>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr"/>
+      <c r="F415" s="2" t="n">
+        <v>45916.97434925926</v>
+      </c>
+      <c r="G415" s="2" t="n">
+        <v>45916.97434902778</v>
+      </c>
+      <c r="H415" t="inlineStr"/>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr"/>
+      <c r="F416" s="2" t="n">
+        <v>45916.97458224537</v>
+      </c>
+      <c r="G416" s="2" t="n">
+        <v>45916.97458199074</v>
+      </c>
+      <c r="H416" t="inlineStr"/>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr"/>
+      <c r="F417" s="2" t="n">
+        <v>45916.97458224537</v>
+      </c>
+      <c r="G417" s="2" t="n">
+        <v>45916.97458199074</v>
+      </c>
+      <c r="H417" t="inlineStr"/>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr"/>
+      <c r="F418" s="2" t="n">
+        <v>45916.97477762731</v>
+      </c>
+      <c r="G418" s="2" t="n">
+        <v>45916.97477739583</v>
+      </c>
+      <c r="H418" t="inlineStr"/>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr"/>
+      <c r="F419" s="2" t="n">
+        <v>45916.97498519676</v>
+      </c>
+      <c r="G419" s="2" t="n">
+        <v>45916.9749849537</v>
+      </c>
+      <c r="H419" t="inlineStr"/>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr"/>
+      <c r="F420" s="2" t="n">
+        <v>45916.97498519676</v>
+      </c>
+      <c r="G420" s="2" t="n">
+        <v>45916.9749849537</v>
+      </c>
+      <c r="H420" t="inlineStr"/>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr"/>
+      <c r="F421" s="2" t="n">
+        <v>45916.97536530092</v>
+      </c>
+      <c r="G421" s="2" t="n">
+        <v>45916.97536505787</v>
+      </c>
+      <c r="H421" t="inlineStr"/>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr"/>
+      <c r="F422" s="2" t="n">
+        <v>45916.97634914352</v>
+      </c>
+      <c r="G422" s="2" t="n">
+        <v>45916.97634891204</v>
+      </c>
+      <c r="H422" t="inlineStr"/>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr"/>
+      <c r="F423" s="2" t="n">
+        <v>45916.97648045139</v>
+      </c>
+      <c r="G423" s="2" t="n">
+        <v>45916.97648021991</v>
+      </c>
+      <c r="H423" t="inlineStr"/>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr"/>
+      <c r="F424" s="2" t="n">
+        <v>45916.97648045139</v>
+      </c>
+      <c r="G424" s="2" t="n">
+        <v>45916.97648021991</v>
+      </c>
+      <c r="H424" t="inlineStr"/>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr"/>
+      <c r="F425" s="2" t="n">
+        <v>45916.97665355324</v>
+      </c>
+      <c r="G425" s="2" t="n">
+        <v>45916.97665332176</v>
+      </c>
+      <c r="H425" t="inlineStr"/>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr"/>
+      <c r="F426" s="2" t="n">
+        <v>45916.97665355324</v>
+      </c>
+      <c r="G426" s="2" t="n">
+        <v>45916.97665332176</v>
+      </c>
+      <c r="H426" t="inlineStr"/>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr"/>
+      <c r="F427" s="2" t="n">
+        <v>45916.9769224537</v>
+      </c>
+      <c r="G427" s="2" t="n">
+        <v>45916.97692221065</v>
+      </c>
+      <c r="H427" t="inlineStr"/>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr"/>
+      <c r="F428" s="2" t="n">
+        <v>45916.97719541666</v>
+      </c>
+      <c r="G428" s="2" t="n">
+        <v>45916.97719502315</v>
+      </c>
+      <c r="H428" t="inlineStr"/>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr"/>
+      <c r="F429" s="2" t="n">
+        <v>45916.97747168982</v>
+      </c>
+      <c r="G429" s="2" t="n">
+        <v>45916.9774712963</v>
+      </c>
+      <c r="H429" t="inlineStr"/>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr"/>
+      <c r="F430" s="2" t="n">
+        <v>45916.97860795139</v>
+      </c>
+      <c r="G430" s="2" t="n">
+        <v>45916.97860770833</v>
+      </c>
+      <c r="H430" t="inlineStr"/>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr"/>
+      <c r="F431" s="2" t="n">
+        <v>45916.97948701389</v>
+      </c>
+      <c r="G431" s="2" t="n">
+        <v>45916.97948678241</v>
+      </c>
+      <c r="H431" t="inlineStr"/>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr"/>
+      <c r="F432" s="2" t="n">
+        <v>45916.97948701389</v>
+      </c>
+      <c r="G432" s="2" t="n">
+        <v>45916.97948678241</v>
+      </c>
+      <c r="H432" t="inlineStr"/>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Trivial-GED_linear</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>SVC_Trivial-GED_linear</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>SVC_Trivial-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr"/>
+      <c r="F433" s="2" t="n">
+        <v>45917.44871592592</v>
+      </c>
+      <c r="G433" s="2" t="n">
+        <v>45917.44871563657</v>
+      </c>
+      <c r="H433" t="inlineStr"/>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Trivial-GED_linear</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>SVC_Trivial-GED_linear</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>SVC_Trivial-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr"/>
+      <c r="F434" s="2" t="n">
+        <v>45917.44871592592</v>
+      </c>
+      <c r="G434" s="2" t="n">
+        <v>45917.44871563657</v>
+      </c>
+      <c r="H434" t="inlineStr"/>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E435" t="inlineStr"/>
+      <c r="F435" s="2" t="n">
+        <v>45917.44905925926</v>
+      </c>
+      <c r="G435" s="2" t="n">
+        <v>45917.44905915509</v>
+      </c>
+      <c r="H435" t="inlineStr"/>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr"/>
+      <c r="F436" s="2" t="n">
+        <v>45917.46023543982</v>
+      </c>
+      <c r="G436" s="2" t="n">
+        <v>45917.46011039352</v>
+      </c>
+      <c r="H436" t="inlineStr"/>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr"/>
+      <c r="F437" s="2" t="n">
+        <v>45917.46468371528</v>
+      </c>
+      <c r="G437" s="2" t="n">
+        <v>45917.46468359954</v>
+      </c>
+      <c r="H437" t="inlineStr"/>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr"/>
+      <c r="F438" s="2" t="n">
+        <v>45917.46546526621</v>
+      </c>
+      <c r="G438" s="2" t="n">
+        <v>45917.46546518519</v>
+      </c>
+      <c r="H438" t="inlineStr"/>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr"/>
+      <c r="F439" s="2" t="n">
+        <v>45917.46722385417</v>
+      </c>
+      <c r="G439" s="2" t="n">
+        <v>45917.46722319444</v>
+      </c>
+      <c r="H439" t="inlineStr"/>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E440" t="inlineStr"/>
+      <c r="F440" s="2" t="n">
+        <v>45917.46886809028</v>
+      </c>
+      <c r="G440" s="2" t="n">
+        <v>45917.46770376158</v>
+      </c>
+      <c r="H440" t="inlineStr"/>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E441" t="inlineStr"/>
+      <c r="F441" s="2" t="n">
+        <v>45917.47135209491</v>
+      </c>
+      <c r="G441" s="2" t="n">
+        <v>45917.47135202547</v>
+      </c>
+      <c r="H441" t="inlineStr"/>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E442" t="inlineStr"/>
+      <c r="F442" s="2" t="n">
+        <v>45917.4754821875</v>
+      </c>
+      <c r="G442" s="2" t="n">
+        <v>45917.47548059028</v>
+      </c>
+      <c r="H442" t="inlineStr"/>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E443" t="inlineStr"/>
+      <c r="F443" s="2" t="n">
+        <v>45917.4754821875</v>
+      </c>
+      <c r="G443" s="2" t="n">
+        <v>45917.47548059028</v>
+      </c>
+      <c r="H443" t="inlineStr"/>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr"/>
+      <c r="F444" s="2" t="n">
+        <v>45918.53683247685</v>
+      </c>
+      <c r="G444" s="2" t="n">
+        <v>45918.53683173611</v>
+      </c>
+      <c r="H444" t="inlineStr"/>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr"/>
+      <c r="F445" s="2" t="n">
+        <v>45918.53683247685</v>
+      </c>
+      <c r="G445" s="2" t="n">
+        <v>45918.53683173611</v>
+      </c>
+      <c r="H445" t="inlineStr"/>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr"/>
+      <c r="F446" s="2" t="n">
+        <v>45918.53774482639</v>
+      </c>
+      <c r="G446" s="2" t="n">
+        <v>45918.53774391203</v>
+      </c>
+      <c r="H446" t="inlineStr"/>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr"/>
+      <c r="F447" s="2" t="n">
+        <v>45918.53862880787</v>
+      </c>
+      <c r="G447" s="2" t="n">
+        <v>45918.53862798611</v>
+      </c>
+      <c r="H447" t="inlineStr"/>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E448" t="inlineStr"/>
+      <c r="F448" s="2" t="n">
+        <v>45918.53925398148</v>
+      </c>
+      <c r="G448" s="2" t="n">
+        <v>45918.53925353009</v>
+      </c>
+      <c r="H448" t="inlineStr"/>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E449" t="inlineStr"/>
+      <c r="F449" s="2" t="n">
+        <v>45918.53941228009</v>
+      </c>
+      <c r="G449" s="2" t="n">
+        <v>45918.53941196759</v>
+      </c>
+      <c r="H449" t="inlineStr"/>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E450" t="inlineStr"/>
+      <c r="F450" s="2" t="n">
+        <v>45918.53941228009</v>
+      </c>
+      <c r="G450" s="2" t="n">
+        <v>45918.53941196759</v>
+      </c>
+      <c r="H450" t="inlineStr"/>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E451" t="inlineStr"/>
+      <c r="F451" s="2" t="n">
+        <v>45918.54641289352</v>
+      </c>
+      <c r="G451" s="2" t="n">
+        <v>45918.5464105787</v>
+      </c>
+      <c r="H451" t="inlineStr"/>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr"/>
+      <c r="F452" s="2" t="n">
+        <v>45918.63027876157</v>
+      </c>
+      <c r="G452" s="2" t="n">
+        <v>45918.63027798611</v>
+      </c>
+      <c r="H452" t="inlineStr"/>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr"/>
+      <c r="F453" s="2" t="n">
+        <v>45918.63096857639</v>
+      </c>
+      <c r="G453" s="2" t="n">
+        <v>45918.63096612268</v>
+      </c>
+      <c r="H453" t="inlineStr"/>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E454" t="inlineStr"/>
+      <c r="F454" s="2" t="n">
+        <v>45918.63112928241</v>
+      </c>
+      <c r="G454" s="2" t="n">
+        <v>45918.63112717593</v>
+      </c>
+      <c r="H454" t="inlineStr"/>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr"/>
+      <c r="F455" s="2" t="n">
+        <v>45918.63112928241</v>
+      </c>
+      <c r="G455" s="2" t="n">
+        <v>45918.63112717593</v>
+      </c>
+      <c r="H455" t="inlineStr"/>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Random-Walk-Edit_linear</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_linear</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E456" t="inlineStr"/>
+      <c r="F456" s="2" t="n">
+        <v>45918.7032625463</v>
+      </c>
+      <c r="G456" s="2" t="n">
+        <v>45918.70250424768</v>
+      </c>
+      <c r="H456" t="inlineStr"/>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Random-Walk-Edit_linear</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_linear</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E457" t="inlineStr"/>
+      <c r="F457" s="2" t="n">
+        <v>45918.7065075</v>
+      </c>
+      <c r="G457" s="2" t="n">
+        <v>45918.70590513889</v>
+      </c>
+      <c r="H457" t="inlineStr"/>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Random-Walk-Edit_linear</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_linear</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr"/>
+      <c r="F458" s="2" t="n">
+        <v>45918.71329604166</v>
+      </c>
+      <c r="G458" s="2" t="n">
+        <v>45918.71266246528</v>
+      </c>
+      <c r="H458" t="inlineStr"/>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Random-Walk-Edit_linear</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_linear</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E459" t="inlineStr"/>
+      <c r="F459" s="2" t="n">
+        <v>45918.71821996527</v>
+      </c>
+      <c r="G459" s="2" t="n">
+        <v>45918.71750664352</v>
+      </c>
+      <c r="H459" t="inlineStr"/>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Random-Walk-Edit_linear</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_linear</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_linear_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E460" t="inlineStr"/>
+      <c r="F460" s="2" t="n">
+        <v>45918.71964310185</v>
+      </c>
+      <c r="G460" s="2" t="n">
+        <v>45918.71909017361</v>
+      </c>
+      <c r="H460" t="inlineStr"/>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E461" t="inlineStr"/>
+      <c r="F461" s="2" t="n">
+        <v>45919.6689896875</v>
+      </c>
+      <c r="G461" s="2" t="n">
+        <v>45919.66837990741</v>
+      </c>
+      <c r="H461" t="inlineStr"/>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E462" t="inlineStr"/>
+      <c r="F462" s="2" t="n">
+        <v>45919.66898968459</v>
+      </c>
+      <c r="G462" s="2" t="n">
+        <v>45919.66837991006</v>
+      </c>
+      <c r="H462" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/configs/test_diagnostics.xlsx
+++ b/configs/test_diagnostics.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H462"/>
+  <dimension ref="A1:H478"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13816,12 +13816,492 @@
       </c>
       <c r="E462" t="inlineStr"/>
       <c r="F462" s="2" t="n">
-        <v>45919.66898968459</v>
+        <v>45919.6689896875</v>
       </c>
       <c r="G462" s="2" t="n">
-        <v>45919.66837991006</v>
+        <v>45919.66837990741</v>
       </c>
       <c r="H462" t="inlineStr"/>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E463" t="inlineStr"/>
+      <c r="F463" s="2" t="n">
+        <v>45920.83823431713</v>
+      </c>
+      <c r="G463" s="2" t="n">
+        <v>45920.83821010416</v>
+      </c>
+      <c r="H463" t="inlineStr"/>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr"/>
+      <c r="F464" s="2" t="n">
+        <v>45920.83823431713</v>
+      </c>
+      <c r="G464" s="2" t="n">
+        <v>45920.83821010416</v>
+      </c>
+      <c r="H464" t="inlineStr"/>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr"/>
+      <c r="F465" s="2" t="n">
+        <v>45920.84053817129</v>
+      </c>
+      <c r="G465" s="2" t="n">
+        <v>45920.84051405093</v>
+      </c>
+      <c r="H465" t="inlineStr"/>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E466" t="inlineStr"/>
+      <c r="F466" s="2" t="n">
+        <v>45920.84053817129</v>
+      </c>
+      <c r="G466" s="2" t="n">
+        <v>45920.84051405093</v>
+      </c>
+      <c r="H466" t="inlineStr"/>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_PTC_FR_with_SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed_trained_on_PTC_FR.joblib</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr"/>
+      <c r="F467" s="2" t="n">
+        <v>45920.96992706019</v>
+      </c>
+      <c r="G467" s="2" t="n">
+        <v>45920.96991429398</v>
+      </c>
+      <c r="H467" t="inlineStr"/>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_PTC_FR_with_SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed_trained_on_PTC_FR.joblib</t>
+        </is>
+      </c>
+      <c r="E468" t="inlineStr"/>
+      <c r="F468" s="2" t="n">
+        <v>45920.97081526621</v>
+      </c>
+      <c r="G468" s="2" t="n">
+        <v>45920.97079936343</v>
+      </c>
+      <c r="H468" t="inlineStr"/>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_PTC_FR_with_SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly_trained_on_PTC_FR.joblib</t>
+        </is>
+      </c>
+      <c r="E469" t="inlineStr"/>
+      <c r="F469" s="2" t="n">
+        <v>45920.97111461806</v>
+      </c>
+      <c r="G469" s="2" t="n">
+        <v>45920.97111326389</v>
+      </c>
+      <c r="H469" t="inlineStr"/>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_PTC_FR_with_SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed_trained_on_PTC_FR.joblib</t>
+        </is>
+      </c>
+      <c r="E470" t="inlineStr"/>
+      <c r="F470" s="2" t="n">
+        <v>45920.97994173611</v>
+      </c>
+      <c r="G470" s="2" t="n">
+        <v>45920.97993623843</v>
+      </c>
+      <c r="H470" t="inlineStr"/>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_PTC_FR_with_SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed_trained_on_PTC_FR.joblib</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr"/>
+      <c r="F471" s="2" t="n">
+        <v>45920.98554704861</v>
+      </c>
+      <c r="G471" s="2" t="n">
+        <v>45920.98554408565</v>
+      </c>
+      <c r="H471" t="inlineStr"/>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_PTC_FR_with_SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed_trained_on_PTC_FR.joblib</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr"/>
+      <c r="F472" s="2" t="n">
+        <v>45920.98955966435</v>
+      </c>
+      <c r="G472" s="2" t="n">
+        <v>45920.98955671296</v>
+      </c>
+      <c r="H472" t="inlineStr"/>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_PTC_FR_with_SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed_trained_on_PTC_FR.joblib</t>
+        </is>
+      </c>
+      <c r="E473" t="inlineStr"/>
+      <c r="F473" s="2" t="n">
+        <v>45920.99912395833</v>
+      </c>
+      <c r="G473" s="2" t="n">
+        <v>45920.99905128472</v>
+      </c>
+      <c r="H473" t="inlineStr"/>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_PTC_FR_with_SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed_trained_on_PTC_FR.joblib</t>
+        </is>
+      </c>
+      <c r="E474" t="inlineStr"/>
+      <c r="F474" s="2" t="n">
+        <v>45921.00193525463</v>
+      </c>
+      <c r="G474" s="2" t="n">
+        <v>45921.00185653935</v>
+      </c>
+      <c r="H474" t="inlineStr"/>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_PTC_FR_with_SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed_trained_on_PTC_FR.joblib</t>
+        </is>
+      </c>
+      <c r="E475" t="inlineStr"/>
+      <c r="F475" s="2" t="n">
+        <v>45921.00193525463</v>
+      </c>
+      <c r="G475" s="2" t="n">
+        <v>45921.00185653935</v>
+      </c>
+      <c r="H475" t="inlineStr"/>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_PTC_FR_with_SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed_trained_on_PTC_FR.joblib</t>
+        </is>
+      </c>
+      <c r="E476" t="inlineStr"/>
+      <c r="F476" s="2" t="n">
+        <v>45921.00328357639</v>
+      </c>
+      <c r="G476" s="2" t="n">
+        <v>45921.00320954861</v>
+      </c>
+      <c r="H476" t="inlineStr"/>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_PTC_FR_with_SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed_trained_on_PTC_FR.joblib</t>
+        </is>
+      </c>
+      <c r="E477" t="inlineStr"/>
+      <c r="F477" s="2" t="n">
+        <v>45921.00328357639</v>
+      </c>
+      <c r="G477" s="2" t="n">
+        <v>45921.00320954861</v>
+      </c>
+      <c r="H477" t="inlineStr"/>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_ENZYMES_with_SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed_trained_on_ENZYMES.joblib</t>
+        </is>
+      </c>
+      <c r="E478" t="inlineStr"/>
+      <c r="F478" s="2" t="n">
+        <v>45921.01114712621</v>
+      </c>
+      <c r="G478" s="2" t="n">
+        <v>45921.01113686936</v>
+      </c>
+      <c r="H478" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/configs/test_diagnostics.xlsx
+++ b/configs/test_diagnostics.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H478"/>
+  <dimension ref="A1:H487"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14296,12 +14296,282 @@
       </c>
       <c r="E478" t="inlineStr"/>
       <c r="F478" s="2" t="n">
-        <v>45921.01114712621</v>
+        <v>45921.01114712963</v>
       </c>
       <c r="G478" s="2" t="n">
-        <v>45921.01113686936</v>
+        <v>45921.011136875</v>
       </c>
       <c r="H478" t="inlineStr"/>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_Letter-high_with_SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>Letter-high</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed_trained_on_Letter-high.joblib</t>
+        </is>
+      </c>
+      <c r="E479" t="inlineStr"/>
+      <c r="F479" s="2" t="n">
+        <v>45922.54324079861</v>
+      </c>
+      <c r="G479" s="2" t="n">
+        <v>45922.54291686343</v>
+      </c>
+      <c r="H479" t="inlineStr"/>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr"/>
+      <c r="F480" s="2" t="n">
+        <v>45922.62947003472</v>
+      </c>
+      <c r="G480" s="2" t="n">
+        <v>45922.62946811342</v>
+      </c>
+      <c r="H480" t="inlineStr"/>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_AIDS_with_SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>AIDS</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed_trained_on_AIDS.joblib</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr"/>
+      <c r="F481" s="2" t="n">
+        <v>45922.63203252315</v>
+      </c>
+      <c r="G481" s="2" t="n">
+        <v>45922.63201989583</v>
+      </c>
+      <c r="H481" t="inlineStr"/>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_AIDS_with_SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>AIDS</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed_trained_on_AIDS.joblib</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr"/>
+      <c r="F482" s="2" t="n">
+        <v>45922.63203252315</v>
+      </c>
+      <c r="G482" s="2" t="n">
+        <v>45922.63201989583</v>
+      </c>
+      <c r="H482" t="inlineStr"/>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_ENZYMES_with_SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed_trained_on_ENZYMES.joblib</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr"/>
+      <c r="F483" s="2" t="n">
+        <v>45922.63492614583</v>
+      </c>
+      <c r="G483" s="2" t="n">
+        <v>45922.63492010417</v>
+      </c>
+      <c r="H483" t="inlineStr"/>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_ENZYMES_with_SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed_trained_on_ENZYMES.joblib</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr"/>
+      <c r="F484" s="2" t="n">
+        <v>45922.63492614583</v>
+      </c>
+      <c r="G484" s="2" t="n">
+        <v>45922.63492010417</v>
+      </c>
+      <c r="H484" t="inlineStr"/>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_BZR_with_SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>BZR</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed_trained_on_BZR.joblib</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr"/>
+      <c r="F485" s="2" t="n">
+        <v>45924.50126130787</v>
+      </c>
+      <c r="G485" s="2" t="n">
+        <v>45924.50093259259</v>
+      </c>
+      <c r="H485" t="inlineStr"/>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr"/>
+      <c r="F486" s="2" t="n">
+        <v>45924.50271662037</v>
+      </c>
+      <c r="G486" s="2" t="n">
+        <v>45924.50266359954</v>
+      </c>
+      <c r="H486" t="inlineStr"/>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr"/>
+      <c r="F487" s="2" t="n">
+        <v>45924.50271661561</v>
+      </c>
+      <c r="G487" s="2" t="n">
+        <v>45924.50266360275</v>
+      </c>
+      <c r="H487" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/configs/test_diagnostics.xlsx
+++ b/configs/test_diagnostics.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H487"/>
+  <dimension ref="A1:H527"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14566,12 +14566,1212 @@
       </c>
       <c r="E487" t="inlineStr"/>
       <c r="F487" s="2" t="n">
-        <v>45924.50271661561</v>
+        <v>45924.50271662037</v>
       </c>
       <c r="G487" s="2" t="n">
-        <v>45924.50266360275</v>
+        <v>45924.50266359954</v>
       </c>
       <c r="H487" t="inlineStr"/>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_BZR_with_SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>BZR</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly_trained_on_BZR.joblib</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr"/>
+      <c r="F488" s="2" t="n">
+        <v>45924.62051621528</v>
+      </c>
+      <c r="G488" s="2" t="n">
+        <v>45924.6204903125</v>
+      </c>
+      <c r="H488" t="inlineStr"/>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_BZR_with_SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>BZR</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly_trained_on_BZR.joblib</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr"/>
+      <c r="F489" s="2" t="n">
+        <v>45924.65678487268</v>
+      </c>
+      <c r="G489" s="2" t="n">
+        <v>45924.65678231481</v>
+      </c>
+      <c r="H489" t="inlineStr"/>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_BZR_with_SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>BZR</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly_trained_on_BZR.joblib</t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr"/>
+      <c r="F490" s="2" t="n">
+        <v>45924.6660155787</v>
+      </c>
+      <c r="G490" s="2" t="n">
+        <v>45924.66601310185</v>
+      </c>
+      <c r="H490" t="inlineStr"/>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_BZR_with_SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>BZR</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly_trained_on_BZR.joblib</t>
+        </is>
+      </c>
+      <c r="E491" t="inlineStr"/>
+      <c r="F491" s="2" t="n">
+        <v>45924.6660155787</v>
+      </c>
+      <c r="G491" s="2" t="n">
+        <v>45924.66601310185</v>
+      </c>
+      <c r="H491" t="inlineStr"/>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_BZR_with_SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>BZR</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly_trained_on_BZR.joblib</t>
+        </is>
+      </c>
+      <c r="E492" t="inlineStr"/>
+      <c r="F492" s="2" t="n">
+        <v>45924.66860956018</v>
+      </c>
+      <c r="G492" s="2" t="n">
+        <v>45924.66860641204</v>
+      </c>
+      <c r="H492" t="inlineStr"/>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_BZR_with_SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>BZR</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly_trained_on_BZR.joblib</t>
+        </is>
+      </c>
+      <c r="E493" t="inlineStr"/>
+      <c r="F493" s="2" t="n">
+        <v>45924.66860956018</v>
+      </c>
+      <c r="G493" s="2" t="n">
+        <v>45924.66860641204</v>
+      </c>
+      <c r="H493" t="inlineStr"/>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_BZR_with_SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>BZR</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly_trained_on_BZR.joblib</t>
+        </is>
+      </c>
+      <c r="E494" t="inlineStr"/>
+      <c r="F494" s="2" t="n">
+        <v>45924.67399969907</v>
+      </c>
+      <c r="G494" s="2" t="n">
+        <v>45924.67399782407</v>
+      </c>
+      <c r="H494" t="inlineStr"/>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_BZR_with_SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>BZR</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly_trained_on_BZR.joblib</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr"/>
+      <c r="F495" s="2" t="n">
+        <v>45924.67574260417</v>
+      </c>
+      <c r="G495" s="2" t="n">
+        <v>45924.67574130787</v>
+      </c>
+      <c r="H495" t="inlineStr"/>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_BZR_with_SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>BZR</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly_trained_on_BZR.joblib</t>
+        </is>
+      </c>
+      <c r="E496" t="inlineStr"/>
+      <c r="F496" s="2" t="n">
+        <v>45924.67574260417</v>
+      </c>
+      <c r="G496" s="2" t="n">
+        <v>45924.67574130787</v>
+      </c>
+      <c r="H496" t="inlineStr"/>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_BZR_with_SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>BZR</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed_trained_on_BZR.joblib</t>
+        </is>
+      </c>
+      <c r="E497" t="inlineStr"/>
+      <c r="F497" s="2" t="n">
+        <v>45924.67655055555</v>
+      </c>
+      <c r="G497" s="2" t="n">
+        <v>45924.67654515046</v>
+      </c>
+      <c r="H497" t="inlineStr"/>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_BZR_with_SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>BZR</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed_trained_on_BZR.joblib</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr"/>
+      <c r="F498" s="2" t="n">
+        <v>45924.68070023148</v>
+      </c>
+      <c r="G498" s="2" t="n">
+        <v>45924.68069513889</v>
+      </c>
+      <c r="H498" t="inlineStr"/>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_BZR_with_SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>BZR</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed_trained_on_BZR.joblib</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr"/>
+      <c r="F499" s="2" t="n">
+        <v>45925.51793018518</v>
+      </c>
+      <c r="G499" s="2" t="n">
+        <v>45925.51783008102</v>
+      </c>
+      <c r="H499" t="inlineStr"/>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_BZR_with_SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>BZR</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed_trained_on_BZR.joblib</t>
+        </is>
+      </c>
+      <c r="E500" t="inlineStr"/>
+      <c r="F500" s="2" t="n">
+        <v>45925.52300373842</v>
+      </c>
+      <c r="G500" s="2" t="n">
+        <v>45925.52189148148</v>
+      </c>
+      <c r="H500" t="inlineStr"/>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_BZR_with_SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>BZR</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed_trained_on_BZR.joblib</t>
+        </is>
+      </c>
+      <c r="E501" t="inlineStr"/>
+      <c r="F501" s="2" t="n">
+        <v>45925.52649340278</v>
+      </c>
+      <c r="G501" s="2" t="n">
+        <v>45925.52648737268</v>
+      </c>
+      <c r="H501" t="inlineStr"/>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_BZR_with_SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>BZR</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed_trained_on_BZR.joblib</t>
+        </is>
+      </c>
+      <c r="E502" t="inlineStr"/>
+      <c r="F502" s="2" t="n">
+        <v>45925.53015548611</v>
+      </c>
+      <c r="G502" s="2" t="n">
+        <v>45925.53014549769</v>
+      </c>
+      <c r="H502" t="inlineStr"/>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_BZR_with_SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>BZR</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed_trained_on_BZR.joblib</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr"/>
+      <c r="F503" s="2" t="n">
+        <v>45925.54304729166</v>
+      </c>
+      <c r="G503" s="2" t="n">
+        <v>45925.54304013889</v>
+      </c>
+      <c r="H503" t="inlineStr"/>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_BZR_with_SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>BZR</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed_trained_on_BZR.joblib</t>
+        </is>
+      </c>
+      <c r="E504" t="inlineStr"/>
+      <c r="F504" s="2" t="n">
+        <v>45925.54304729166</v>
+      </c>
+      <c r="G504" s="2" t="n">
+        <v>45925.54304013889</v>
+      </c>
+      <c r="H504" t="inlineStr"/>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_BZR_with_SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>BZR</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed_trained_on_BZR.joblib</t>
+        </is>
+      </c>
+      <c r="E505" t="inlineStr"/>
+      <c r="F505" s="2" t="n">
+        <v>45925.54536806713</v>
+      </c>
+      <c r="G505" s="2" t="n">
+        <v>45925.54536305556</v>
+      </c>
+      <c r="H505" t="inlineStr"/>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_BZR_with_SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>BZR</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed_trained_on_BZR.joblib</t>
+        </is>
+      </c>
+      <c r="E506" t="inlineStr"/>
+      <c r="F506" s="2" t="n">
+        <v>45925.54850828704</v>
+      </c>
+      <c r="G506" s="2" t="n">
+        <v>45925.54850324074</v>
+      </c>
+      <c r="H506" t="inlineStr"/>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_BZR_with_SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>BZR</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed_trained_on_BZR.joblib</t>
+        </is>
+      </c>
+      <c r="E507" t="inlineStr"/>
+      <c r="F507" s="2" t="n">
+        <v>45925.55185165509</v>
+      </c>
+      <c r="G507" s="2" t="n">
+        <v>45925.55184623843</v>
+      </c>
+      <c r="H507" t="inlineStr"/>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_BZR_with_SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>BZR</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed_trained_on_BZR.joblib</t>
+        </is>
+      </c>
+      <c r="E508" t="inlineStr"/>
+      <c r="F508" s="2" t="n">
+        <v>45925.55185165509</v>
+      </c>
+      <c r="G508" s="2" t="n">
+        <v>45925.55184623843</v>
+      </c>
+      <c r="H508" t="inlineStr"/>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_BZR_with_SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>BZR</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed_trained_on_BZR.joblib</t>
+        </is>
+      </c>
+      <c r="E509" t="inlineStr"/>
+      <c r="F509" s="2" t="n">
+        <v>45925.57046309028</v>
+      </c>
+      <c r="G509" s="2" t="n">
+        <v>45925.57028105324</v>
+      </c>
+      <c r="H509" t="inlineStr"/>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_BZR_with_SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>BZR</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed_trained_on_BZR.joblib</t>
+        </is>
+      </c>
+      <c r="E510" t="inlineStr"/>
+      <c r="F510" s="2" t="n">
+        <v>45925.57171554398</v>
+      </c>
+      <c r="G510" s="2" t="n">
+        <v>45925.57147372685</v>
+      </c>
+      <c r="H510" t="inlineStr"/>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_BZR_with_SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>BZR</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed_trained_on_BZR.joblib</t>
+        </is>
+      </c>
+      <c r="E511" t="inlineStr"/>
+      <c r="F511" s="2" t="n">
+        <v>45925.57743530093</v>
+      </c>
+      <c r="G511" s="2" t="n">
+        <v>45925.57673060185</v>
+      </c>
+      <c r="H511" t="inlineStr"/>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_BZR_with_SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>BZR</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed_trained_on_BZR.joblib</t>
+        </is>
+      </c>
+      <c r="E512" t="inlineStr"/>
+      <c r="F512" s="2" t="n">
+        <v>45925.58201896991</v>
+      </c>
+      <c r="G512" s="2" t="n">
+        <v>45925.58174378472</v>
+      </c>
+      <c r="H512" t="inlineStr"/>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_BZR_with_SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>BZR</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed_trained_on_BZR.joblib</t>
+        </is>
+      </c>
+      <c r="E513" t="inlineStr"/>
+      <c r="F513" s="2" t="n">
+        <v>45925.58601043982</v>
+      </c>
+      <c r="G513" s="2" t="n">
+        <v>45925.58583722222</v>
+      </c>
+      <c r="H513" t="inlineStr"/>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_BZR_with_SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>BZR</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed_trained_on_BZR.joblib</t>
+        </is>
+      </c>
+      <c r="E514" t="inlineStr"/>
+      <c r="F514" s="2" t="n">
+        <v>45925.58601043982</v>
+      </c>
+      <c r="G514" s="2" t="n">
+        <v>45925.58583722222</v>
+      </c>
+      <c r="H514" t="inlineStr"/>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_Letter-high_with_(7)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>Letter-high</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>(7)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>(7)-NN_Classifier_GED_trained_on_Letter-high.joblib</t>
+        </is>
+      </c>
+      <c r="E515" t="inlineStr"/>
+      <c r="F515" s="2" t="n">
+        <v>45926.55947094908</v>
+      </c>
+      <c r="G515" s="2" t="n">
+        <v>45926.55942363426</v>
+      </c>
+      <c r="H515" t="inlineStr"/>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(7)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>(7)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>(7)-NN_Classifier_GED_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E516" t="inlineStr"/>
+      <c r="F516" s="2" t="n">
+        <v>45926.56548694445</v>
+      </c>
+      <c r="G516" s="2" t="n">
+        <v>45926.56548652778</v>
+      </c>
+      <c r="H516" t="inlineStr"/>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E517" t="inlineStr"/>
+      <c r="F517" s="2" t="n">
+        <v>45926.56598181713</v>
+      </c>
+      <c r="G517" s="2" t="n">
+        <v>45926.56597805556</v>
+      </c>
+      <c r="H517" t="inlineStr"/>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_Letter-high_with_(7)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>Letter-high</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>(7)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>(7)-NN_Classifier_GED_trained_on_Letter-high.joblib</t>
+        </is>
+      </c>
+      <c r="E518" t="inlineStr"/>
+      <c r="F518" s="2" t="n">
+        <v>45926.57018256944</v>
+      </c>
+      <c r="G518" s="2" t="n">
+        <v>45926.57013594908</v>
+      </c>
+      <c r="H518" t="inlineStr"/>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_BZR_with_SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>BZR</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed_trained_on_BZR.joblib</t>
+        </is>
+      </c>
+      <c r="E519" t="inlineStr"/>
+      <c r="F519" s="2" t="n">
+        <v>45926.60692478009</v>
+      </c>
+      <c r="G519" s="2" t="n">
+        <v>45926.60692107639</v>
+      </c>
+      <c r="H519" t="inlineStr"/>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_BZR_with_SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>BZR</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed_trained_on_BZR.joblib</t>
+        </is>
+      </c>
+      <c r="E520" t="inlineStr"/>
+      <c r="F520" s="2" t="n">
+        <v>45926.60778174768</v>
+      </c>
+      <c r="G520" s="2" t="n">
+        <v>45926.60777612268</v>
+      </c>
+      <c r="H520" t="inlineStr"/>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_BZR_with_SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>BZR</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed_trained_on_BZR.joblib</t>
+        </is>
+      </c>
+      <c r="E521" t="inlineStr"/>
+      <c r="F521" s="2" t="n">
+        <v>45926.60778174768</v>
+      </c>
+      <c r="G521" s="2" t="n">
+        <v>45926.60777612268</v>
+      </c>
+      <c r="H521" t="inlineStr"/>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_BZR_with_SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>BZR</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed_trained_on_BZR.joblib</t>
+        </is>
+      </c>
+      <c r="E522" t="inlineStr"/>
+      <c r="F522" s="2" t="n">
+        <v>45926.63602863426</v>
+      </c>
+      <c r="G522" s="2" t="n">
+        <v>45926.63602075232</v>
+      </c>
+      <c r="H522" t="inlineStr"/>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_BZR_with_SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>BZR</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed_trained_on_BZR.joblib</t>
+        </is>
+      </c>
+      <c r="E523" t="inlineStr"/>
+      <c r="F523" s="2" t="n">
+        <v>45926.6371171412</v>
+      </c>
+      <c r="G523" s="2" t="n">
+        <v>45926.63710895833</v>
+      </c>
+      <c r="H523" t="inlineStr"/>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_BZR_with_SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>BZR</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed_trained_on_BZR.joblib</t>
+        </is>
+      </c>
+      <c r="E524" t="inlineStr"/>
+      <c r="F524" s="2" t="n">
+        <v>45926.65641547454</v>
+      </c>
+      <c r="G524" s="2" t="n">
+        <v>45926.65641295139</v>
+      </c>
+      <c r="H524" t="inlineStr"/>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_BZR_with_SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>BZR</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed_trained_on_BZR.joblib</t>
+        </is>
+      </c>
+      <c r="E525" t="inlineStr"/>
+      <c r="F525" s="2" t="n">
+        <v>45926.66002355324</v>
+      </c>
+      <c r="G525" s="2" t="n">
+        <v>45926.66002107639</v>
+      </c>
+      <c r="H525" t="inlineStr"/>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_BZR_with_SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>BZR</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed_trained_on_BZR.joblib</t>
+        </is>
+      </c>
+      <c r="E526" t="inlineStr"/>
+      <c r="F526" s="2" t="n">
+        <v>45926.66002355324</v>
+      </c>
+      <c r="G526" s="2" t="n">
+        <v>45926.66002107639</v>
+      </c>
+      <c r="H526" t="inlineStr"/>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Trivial-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>SVC_Trivial-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>SVC_Trivial-GED_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E527" t="inlineStr"/>
+      <c r="F527" s="2" t="n">
+        <v>45926.82500684206</v>
+      </c>
+      <c r="G527" s="2" t="n">
+        <v>45926.82500614467</v>
+      </c>
+      <c r="H527" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/configs/test_diagnostics.xlsx
+++ b/configs/test_diagnostics.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H527"/>
+  <dimension ref="A1:H574"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15766,12 +15766,1422 @@
       </c>
       <c r="E527" t="inlineStr"/>
       <c r="F527" s="2" t="n">
-        <v>45926.82500684206</v>
+        <v>45926.82500684028</v>
       </c>
       <c r="G527" s="2" t="n">
-        <v>45926.82500614467</v>
+        <v>45926.82500614583</v>
       </c>
       <c r="H527" t="inlineStr"/>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>SVC_Hybrid-Prototype-GED_poly_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E528" t="inlineStr"/>
+      <c r="F528" s="2" t="n">
+        <v>45928.73508200231</v>
+      </c>
+      <c r="G528" s="2" t="n">
+        <v>45928.73476753472</v>
+      </c>
+      <c r="H528" t="inlineStr"/>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>SVC_Hybrid-Prototype-GED_poly_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E529" t="inlineStr"/>
+      <c r="F529" s="2" t="n">
+        <v>45928.74027630787</v>
+      </c>
+      <c r="G529" s="2" t="n">
+        <v>45928.74027603009</v>
+      </c>
+      <c r="H529" t="inlineStr"/>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>SVC_Hybrid-Prototype-GED_poly_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E530" t="inlineStr"/>
+      <c r="F530" s="2" t="n">
+        <v>45928.74051083333</v>
+      </c>
+      <c r="G530" s="2" t="n">
+        <v>45928.74051065972</v>
+      </c>
+      <c r="H530" t="inlineStr"/>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>SVC_Hybrid-Prototype-GED_poly_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E531" t="inlineStr"/>
+      <c r="F531" s="2" t="n">
+        <v>45928.7406225</v>
+      </c>
+      <c r="G531" s="2" t="n">
+        <v>45928.74062231481</v>
+      </c>
+      <c r="H531" t="inlineStr"/>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>SVC_Hybrid-Prototype-GED_poly_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E532" t="inlineStr"/>
+      <c r="F532" s="2" t="n">
+        <v>45928.74169708334</v>
+      </c>
+      <c r="G532" s="2" t="n">
+        <v>45928.74169689815</v>
+      </c>
+      <c r="H532" t="inlineStr"/>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>SVC_Hybrid-Prototype-GED_poly_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E533" t="inlineStr"/>
+      <c r="F533" s="2" t="n">
+        <v>45928.74183967592</v>
+      </c>
+      <c r="G533" s="2" t="n">
+        <v>45928.74183949074</v>
+      </c>
+      <c r="H533" t="inlineStr"/>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>SVC_Hybrid-Prototype-GED_poly_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E534" t="inlineStr"/>
+      <c r="F534" s="2" t="n">
+        <v>45928.74296071759</v>
+      </c>
+      <c r="G534" s="2" t="n">
+        <v>45928.74284770833</v>
+      </c>
+      <c r="H534" t="inlineStr"/>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>SVC_Hybrid-Prototype-GED_poly_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E535" t="inlineStr"/>
+      <c r="F535" s="2" t="n">
+        <v>45928.74464642361</v>
+      </c>
+      <c r="G535" s="2" t="n">
+        <v>45928.74464606481</v>
+      </c>
+      <c r="H535" t="inlineStr"/>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>SVC_Hybrid-Prototype-GED_poly_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E536" t="inlineStr"/>
+      <c r="F536" s="2" t="n">
+        <v>45928.74654375</v>
+      </c>
+      <c r="G536" s="2" t="n">
+        <v>45928.74654357639</v>
+      </c>
+      <c r="H536" t="inlineStr"/>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>SVC_Hybrid-Prototype-GED_poly_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E537" t="inlineStr"/>
+      <c r="F537" s="2" t="n">
+        <v>45928.74882324074</v>
+      </c>
+      <c r="G537" s="2" t="n">
+        <v>45928.74882306713</v>
+      </c>
+      <c r="H537" t="inlineStr"/>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>SVC_Hybrid-Prototype-GED_poly_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E538" t="inlineStr"/>
+      <c r="F538" s="2" t="n">
+        <v>45928.75600518518</v>
+      </c>
+      <c r="G538" s="2" t="n">
+        <v>45928.756005</v>
+      </c>
+      <c r="H538" t="inlineStr"/>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>SVC_Hybrid-Prototype-GED_poly_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E539" t="inlineStr"/>
+      <c r="F539" s="2" t="n">
+        <v>45928.76030185185</v>
+      </c>
+      <c r="G539" s="2" t="n">
+        <v>45928.76030166667</v>
+      </c>
+      <c r="H539" t="inlineStr"/>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>SVC_Hybrid-Prototype-GED_poly_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E540" t="inlineStr"/>
+      <c r="F540" s="2" t="n">
+        <v>45928.76113164352</v>
+      </c>
+      <c r="G540" s="2" t="n">
+        <v>45928.76113146991</v>
+      </c>
+      <c r="H540" t="inlineStr"/>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>SVC_Hybrid-Prototype-GED_poly_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E541" t="inlineStr"/>
+      <c r="F541" s="2" t="n">
+        <v>45928.76185570602</v>
+      </c>
+      <c r="G541" s="2" t="n">
+        <v>45928.76185537037</v>
+      </c>
+      <c r="H541" t="inlineStr"/>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>SVC_Hybrid-Prototype-GED_poly_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E542" t="inlineStr"/>
+      <c r="F542" s="2" t="n">
+        <v>45928.76224690972</v>
+      </c>
+      <c r="G542" s="2" t="n">
+        <v>45928.76224673611</v>
+      </c>
+      <c r="H542" t="inlineStr"/>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>SVC_Hybrid-Prototype-GED_poly_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E543" t="inlineStr"/>
+      <c r="F543" s="2" t="n">
+        <v>45928.78680988426</v>
+      </c>
+      <c r="G543" s="2" t="n">
+        <v>45928.78680969907</v>
+      </c>
+      <c r="H543" t="inlineStr"/>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>SVC_Hybrid-Prototype-GED_poly_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E544" t="inlineStr"/>
+      <c r="F544" s="2" t="n">
+        <v>45928.78680988426</v>
+      </c>
+      <c r="G544" s="2" t="n">
+        <v>45928.78680969907</v>
+      </c>
+      <c r="H544" t="inlineStr"/>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>SVC_Hybrid-Prototype-GED_poly_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E545" t="inlineStr"/>
+      <c r="F545" s="2" t="n">
+        <v>45928.78913988426</v>
+      </c>
+      <c r="G545" s="2" t="n">
+        <v>45928.78913969907</v>
+      </c>
+      <c r="H545" t="inlineStr"/>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>SVC_Hybrid-Prototype-GED_poly_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E546" t="inlineStr"/>
+      <c r="F546" s="2" t="n">
+        <v>45928.78913988426</v>
+      </c>
+      <c r="G546" s="2" t="n">
+        <v>45928.78913969907</v>
+      </c>
+      <c r="H546" t="inlineStr"/>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E547" t="inlineStr"/>
+      <c r="F547" s="2" t="n">
+        <v>45928.79124894676</v>
+      </c>
+      <c r="G547" s="2" t="n">
+        <v>45928.79124855324</v>
+      </c>
+      <c r="H547" t="inlineStr"/>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E548" t="inlineStr"/>
+      <c r="F548" s="2" t="n">
+        <v>45928.79177569444</v>
+      </c>
+      <c r="G548" s="2" t="n">
+        <v>45928.79177530092</v>
+      </c>
+      <c r="H548" t="inlineStr"/>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E549" t="inlineStr"/>
+      <c r="F549" s="2" t="n">
+        <v>45928.79347611111</v>
+      </c>
+      <c r="G549" s="2" t="n">
+        <v>45928.79347571759</v>
+      </c>
+      <c r="H549" t="inlineStr"/>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E550" t="inlineStr"/>
+      <c r="F550" s="2" t="n">
+        <v>45928.79347611111</v>
+      </c>
+      <c r="G550" s="2" t="n">
+        <v>45928.79347571759</v>
+      </c>
+      <c r="H550" t="inlineStr"/>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E551" t="inlineStr"/>
+      <c r="F551" s="2" t="n">
+        <v>45928.79982484954</v>
+      </c>
+      <c r="G551" s="2" t="n">
+        <v>45928.79982446759</v>
+      </c>
+      <c r="H551" t="inlineStr"/>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E552" t="inlineStr"/>
+      <c r="F552" s="2" t="n">
+        <v>45928.79982484954</v>
+      </c>
+      <c r="G552" s="2" t="n">
+        <v>45928.79982446759</v>
+      </c>
+      <c r="H552" t="inlineStr"/>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E553" t="inlineStr"/>
+      <c r="F553" s="2" t="n">
+        <v>45928.80027903935</v>
+      </c>
+      <c r="G553" s="2" t="n">
+        <v>45928.80003978009</v>
+      </c>
+      <c r="H553" t="inlineStr"/>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E554" t="inlineStr"/>
+      <c r="F554" s="2" t="n">
+        <v>45928.80211172454</v>
+      </c>
+      <c r="G554" s="2" t="n">
+        <v>45928.80137120371</v>
+      </c>
+      <c r="H554" t="inlineStr"/>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E555" t="inlineStr"/>
+      <c r="F555" s="2" t="n">
+        <v>45928.80414511574</v>
+      </c>
+      <c r="G555" s="2" t="n">
+        <v>45928.80408327546</v>
+      </c>
+      <c r="H555" t="inlineStr"/>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E556" t="inlineStr"/>
+      <c r="F556" s="2" t="n">
+        <v>45928.80414511574</v>
+      </c>
+      <c r="G556" s="2" t="n">
+        <v>45928.80408327546</v>
+      </c>
+      <c r="H556" t="inlineStr"/>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(5)-NN_Classifier_minkowski</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_minkowski</t>
+        </is>
+      </c>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_minkowski_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E557" t="inlineStr"/>
+      <c r="F557" s="2" t="n">
+        <v>45928.87730640046</v>
+      </c>
+      <c r="G557" s="2" t="n">
+        <v>45928.87730611111</v>
+      </c>
+      <c r="H557" t="inlineStr"/>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(5)-NN_Classifier_minkowski</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_minkowski</t>
+        </is>
+      </c>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_minkowski_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E558" t="inlineStr"/>
+      <c r="F558" s="2" t="n">
+        <v>45928.87948652778</v>
+      </c>
+      <c r="G558" s="2" t="n">
+        <v>45928.87948638889</v>
+      </c>
+      <c r="H558" t="inlineStr"/>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(5)-NN_Classifier_minkowski</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_minkowski</t>
+        </is>
+      </c>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_minkowski_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E559" t="inlineStr"/>
+      <c r="F559" s="2" t="n">
+        <v>45928.88045356482</v>
+      </c>
+      <c r="G559" s="2" t="n">
+        <v>45928.88045341435</v>
+      </c>
+      <c r="H559" t="inlineStr"/>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(5)-NN_Classifier_minkowski</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_minkowski</t>
+        </is>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_minkowski_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E560" t="inlineStr"/>
+      <c r="F560" s="2" t="n">
+        <v>45928.88045356482</v>
+      </c>
+      <c r="G560" s="2" t="n">
+        <v>45928.88045341435</v>
+      </c>
+      <c r="H560" t="inlineStr"/>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_GED-KNN</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>GED-KNN</t>
+        </is>
+      </c>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t>GED-KNN_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E561" t="inlineStr"/>
+      <c r="F561" s="2" t="n">
+        <v>45929.00809332176</v>
+      </c>
+      <c r="G561" s="2" t="n">
+        <v>45929.00809305556</v>
+      </c>
+      <c r="H561" t="inlineStr"/>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_GED-KNN</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>GED-KNN</t>
+        </is>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>GED-KNN_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E562" t="inlineStr"/>
+      <c r="F562" s="2" t="n">
+        <v>45929.00809332176</v>
+      </c>
+      <c r="G562" s="2" t="n">
+        <v>45929.00809305556</v>
+      </c>
+      <c r="H562" t="inlineStr"/>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_GED-KNN</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>GED-KNN</t>
+        </is>
+      </c>
+      <c r="D563" t="inlineStr">
+        <is>
+          <t>GED-KNN_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E563" t="inlineStr"/>
+      <c r="F563" s="2" t="n">
+        <v>45929.0134781713</v>
+      </c>
+      <c r="G563" s="2" t="n">
+        <v>45929.01347790509</v>
+      </c>
+      <c r="H563" t="inlineStr"/>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_GED-KNN</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>GED-KNN</t>
+        </is>
+      </c>
+      <c r="D564" t="inlineStr">
+        <is>
+          <t>GED-KNN_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E564" t="inlineStr"/>
+      <c r="F564" s="2" t="n">
+        <v>45929.0134781713</v>
+      </c>
+      <c r="G564" s="2" t="n">
+        <v>45929.01347790509</v>
+      </c>
+      <c r="H564" t="inlineStr"/>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_feature-KNN</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>feature-KNN</t>
+        </is>
+      </c>
+      <c r="D565" t="inlineStr">
+        <is>
+          <t>feature-KNN_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E565" t="inlineStr"/>
+      <c r="F565" s="2" t="n">
+        <v>45929.11690835648</v>
+      </c>
+      <c r="G565" s="2" t="n">
+        <v>45929.11690820602</v>
+      </c>
+      <c r="H565" t="inlineStr"/>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_feature-KNN</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>feature-KNN</t>
+        </is>
+      </c>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>feature-KNN_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E566" t="inlineStr"/>
+      <c r="F566" s="2" t="n">
+        <v>45929.11737443287</v>
+      </c>
+      <c r="G566" s="2" t="n">
+        <v>45929.11737429398</v>
+      </c>
+      <c r="H566" t="inlineStr"/>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_feature-KNN</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>feature-KNN</t>
+        </is>
+      </c>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>feature-KNN_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E567" t="inlineStr"/>
+      <c r="F567" s="2" t="n">
+        <v>45929.12947631945</v>
+      </c>
+      <c r="G567" s="2" t="n">
+        <v>45929.12947618055</v>
+      </c>
+      <c r="H567" t="inlineStr"/>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_feature-KNN</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>feature-KNN</t>
+        </is>
+      </c>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>feature-KNN_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E568" t="inlineStr"/>
+      <c r="F568" s="2" t="n">
+        <v>45929.12966047454</v>
+      </c>
+      <c r="G568" s="2" t="n">
+        <v>45929.1296603125</v>
+      </c>
+      <c r="H568" t="inlineStr"/>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Trivial-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>SVC_Trivial-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t>SVC_Trivial-GED_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E569" t="inlineStr"/>
+      <c r="F569" s="2" t="n">
+        <v>45929.4713471412</v>
+      </c>
+      <c r="G569" s="2" t="n">
+        <v>45929.47134655093</v>
+      </c>
+      <c r="H569" t="inlineStr"/>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Trivial-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>SVC_Trivial-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>SVC_Trivial-GED_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E570" t="inlineStr"/>
+      <c r="F570" s="2" t="n">
+        <v>45929.47242612269</v>
+      </c>
+      <c r="G570" s="2" t="n">
+        <v>45929.47242553241</v>
+      </c>
+      <c r="H570" t="inlineStr"/>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Trivial-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>SVC_Trivial-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>SVC_Trivial-GED_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E571" t="inlineStr"/>
+      <c r="F571" s="2" t="n">
+        <v>45929.47242612269</v>
+      </c>
+      <c r="G571" s="2" t="n">
+        <v>45929.47242553241</v>
+      </c>
+      <c r="H571" t="inlineStr"/>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E572" t="inlineStr"/>
+      <c r="F572" s="2" t="n">
+        <v>45929.47335611111</v>
+      </c>
+      <c r="G572" s="2" t="n">
+        <v>45929.47335546296</v>
+      </c>
+      <c r="H572" t="inlineStr"/>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E573" t="inlineStr"/>
+      <c r="F573" s="2" t="n">
+        <v>45929.47446090278</v>
+      </c>
+      <c r="G573" s="2" t="n">
+        <v>45929.47446027778</v>
+      </c>
+      <c r="H573" t="inlineStr"/>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D574" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E574" t="inlineStr"/>
+      <c r="F574" s="2" t="n">
+        <v>45929.47446090107</v>
+      </c>
+      <c r="G574" s="2" t="n">
+        <v>45929.47446027765</v>
+      </c>
+      <c r="H574" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/configs/test_diagnostics.xlsx
+++ b/configs/test_diagnostics.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H574"/>
+  <dimension ref="A1:H596"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17176,12 +17176,672 @@
       </c>
       <c r="E574" t="inlineStr"/>
       <c r="F574" s="2" t="n">
-        <v>45929.47446090107</v>
+        <v>45929.47446090278</v>
       </c>
       <c r="G574" s="2" t="n">
-        <v>45929.47446027765</v>
+        <v>45929.47446027778</v>
       </c>
       <c r="H574" t="inlineStr"/>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_feature-KNN</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>feature-KNN</t>
+        </is>
+      </c>
+      <c r="D575" t="inlineStr">
+        <is>
+          <t>feature-KNN_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E575" t="inlineStr"/>
+      <c r="F575" s="2" t="n">
+        <v>45934.69965002315</v>
+      </c>
+      <c r="G575" s="2" t="n">
+        <v>45934.6996496875</v>
+      </c>
+      <c r="H575" t="inlineStr"/>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D576" t="inlineStr">
+        <is>
+          <t>SVC_Hybrid-Prototype-GED_poly_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E576" t="inlineStr"/>
+      <c r="F576" s="2" t="n">
+        <v>45934.73216295139</v>
+      </c>
+      <c r="G576" s="2" t="n">
+        <v>45934.73216259259</v>
+      </c>
+      <c r="H576" t="inlineStr"/>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_PTC_FR_with_SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>SVC_Hybrid-Prototype-GED_poly_trained_on_PTC_FR.joblib</t>
+        </is>
+      </c>
+      <c r="E577" t="inlineStr"/>
+      <c r="F577" s="2" t="n">
+        <v>45934.74649184028</v>
+      </c>
+      <c r="G577" s="2" t="n">
+        <v>45934.74649076389</v>
+      </c>
+      <c r="H577" t="inlineStr"/>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_VertexHistogram_rbf</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>SVC_VertexHistogram_rbf</t>
+        </is>
+      </c>
+      <c r="D578" t="inlineStr">
+        <is>
+          <t>SVC_VertexHistogram_rbf_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E578" t="inlineStr"/>
+      <c r="F578" s="2" t="n">
+        <v>45934.77812075231</v>
+      </c>
+      <c r="G578" s="2" t="n">
+        <v>45934.77806451389</v>
+      </c>
+      <c r="H578" t="inlineStr"/>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_EdgeHistogram_rbf</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>SVC_EdgeHistogram_rbf</t>
+        </is>
+      </c>
+      <c r="D579" t="inlineStr">
+        <is>
+          <t>SVC_EdgeHistogram_rbf_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E579" t="inlineStr"/>
+      <c r="F579" s="2" t="n">
+        <v>45934.78180104167</v>
+      </c>
+      <c r="G579" s="2" t="n">
+        <v>45934.78180091435</v>
+      </c>
+      <c r="H579" t="inlineStr"/>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_EdgeHistogram_rbf</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>SVC_EdgeHistogram_rbf</t>
+        </is>
+      </c>
+      <c r="D580" t="inlineStr">
+        <is>
+          <t>SVC_EdgeHistogram_rbf_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E580" t="inlineStr"/>
+      <c r="F580" s="2" t="n">
+        <v>45934.78180104167</v>
+      </c>
+      <c r="G580" s="2" t="n">
+        <v>45934.78180091435</v>
+      </c>
+      <c r="H580" t="inlineStr"/>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_CombinedHistogram_rbf</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_rbf</t>
+        </is>
+      </c>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_rbf_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E581" t="inlineStr"/>
+      <c r="F581" s="2" t="n">
+        <v>45934.84572197917</v>
+      </c>
+      <c r="G581" s="2" t="n">
+        <v>45934.8457218287</v>
+      </c>
+      <c r="H581" t="inlineStr"/>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_CombinedHistogram_rbf</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_rbf</t>
+        </is>
+      </c>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_rbf_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E582" t="inlineStr"/>
+      <c r="F582" s="2" t="n">
+        <v>45934.84572197917</v>
+      </c>
+      <c r="G582" s="2" t="n">
+        <v>45934.8457218287</v>
+      </c>
+      <c r="H582" t="inlineStr"/>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_CombinedHistogram_rbf</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_rbf</t>
+        </is>
+      </c>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_rbf_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E583" t="inlineStr"/>
+      <c r="F583" s="2" t="n">
+        <v>45934.85872717592</v>
+      </c>
+      <c r="G583" s="2" t="n">
+        <v>45934.85872704861</v>
+      </c>
+      <c r="H583" t="inlineStr"/>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_CombinedHistogram_rbf</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_rbf</t>
+        </is>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_rbf_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E584" t="inlineStr"/>
+      <c r="F584" s="2" t="n">
+        <v>45934.85872717592</v>
+      </c>
+      <c r="G584" s="2" t="n">
+        <v>45934.85872704861</v>
+      </c>
+      <c r="H584" t="inlineStr"/>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_CombinedHistogram_rbf</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_rbf</t>
+        </is>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_rbf_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E585" t="inlineStr"/>
+      <c r="F585" s="2" t="n">
+        <v>45934.86840295139</v>
+      </c>
+      <c r="G585" s="2" t="n">
+        <v>45934.86824746527</v>
+      </c>
+      <c r="H585" t="inlineStr"/>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_feature-KNN</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>feature-KNN</t>
+        </is>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>feature-KNN_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E586" t="inlineStr"/>
+      <c r="F586" s="2" t="n">
+        <v>45934.87197950231</v>
+      </c>
+      <c r="G586" s="2" t="n">
+        <v>45934.87197908565</v>
+      </c>
+      <c r="H586" t="inlineStr"/>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_feature-KNN</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>feature-KNN</t>
+        </is>
+      </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>feature-KNN_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E587" t="inlineStr"/>
+      <c r="F587" s="2" t="n">
+        <v>45934.87640118055</v>
+      </c>
+      <c r="G587" s="2" t="n">
+        <v>45934.87640077547</v>
+      </c>
+      <c r="H587" t="inlineStr"/>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_feature-KNN</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>feature-KNN</t>
+        </is>
+      </c>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>feature-KNN_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E588" t="inlineStr"/>
+      <c r="F588" s="2" t="n">
+        <v>45934.88721842592</v>
+      </c>
+      <c r="G588" s="2" t="n">
+        <v>45934.88689296296</v>
+      </c>
+      <c r="H588" t="inlineStr"/>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_feature-KNN</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>feature-KNN</t>
+        </is>
+      </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>feature-KNN_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E589" t="inlineStr"/>
+      <c r="F589" s="2" t="n">
+        <v>45934.88872850694</v>
+      </c>
+      <c r="G589" s="2" t="n">
+        <v>45934.88872775463</v>
+      </c>
+      <c r="H589" t="inlineStr"/>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>SVC_Hybrid-Prototype-GED_poly_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E590" t="inlineStr"/>
+      <c r="F590" s="2" t="n">
+        <v>45934.98598952546</v>
+      </c>
+      <c r="G590" s="2" t="n">
+        <v>45934.98598822916</v>
+      </c>
+      <c r="H590" t="inlineStr"/>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E591" t="inlineStr"/>
+      <c r="F591" s="2" t="n">
+        <v>45935.12126365741</v>
+      </c>
+      <c r="G591" s="2" t="n">
+        <v>45935.12125907408</v>
+      </c>
+      <c r="H591" t="inlineStr"/>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E592" t="inlineStr"/>
+      <c r="F592" s="2" t="n">
+        <v>45935.12517533565</v>
+      </c>
+      <c r="G592" s="2" t="n">
+        <v>45935.12517086806</v>
+      </c>
+      <c r="H592" t="inlineStr"/>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E593" t="inlineStr"/>
+      <c r="F593" s="2" t="n">
+        <v>45935.12592638889</v>
+      </c>
+      <c r="G593" s="2" t="n">
+        <v>45935.12592527777</v>
+      </c>
+      <c r="H593" t="inlineStr"/>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E594" t="inlineStr"/>
+      <c r="F594" s="2" t="n">
+        <v>45935.12736097222</v>
+      </c>
+      <c r="G594" s="2" t="n">
+        <v>45935.12736019676</v>
+      </c>
+      <c r="H594" t="inlineStr"/>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E595" t="inlineStr"/>
+      <c r="F595" s="2" t="n">
+        <v>45935.70941407407</v>
+      </c>
+      <c r="G595" s="2" t="n">
+        <v>45935.70941309028</v>
+      </c>
+      <c r="H595" t="inlineStr"/>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed_trained_on_MUTAG.joblib</t>
+        </is>
+      </c>
+      <c r="E596" t="inlineStr"/>
+      <c r="F596" s="2" t="n">
+        <v>45935.70991768294</v>
+      </c>
+      <c r="G596" s="2" t="n">
+        <v>45935.70991684647</v>
+      </c>
+      <c r="H596" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
